--- a/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
+++ b/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674E2DE-1A9E-47A9-9610-D5CCE73DD3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C439D338-AABC-4830-AE37-09C230E0FDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
   </bookViews>
   <sheets>
     <sheet name="繳費單" sheetId="3" r:id="rId1"/>
@@ -20,12 +20,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>工程名稱</t>
   </si>
@@ -268,31 +278,40 @@
     <t>*MARKET_NO*</t>
   </si>
   <si>
+    <t>*MARKET_AMT*</t>
+  </si>
+  <si>
+    <t>MARKET_AMT</t>
+  </si>
+  <si>
+    <t>*19834251*</t>
+  </si>
+  <si>
+    <t>　　台灣銀行股份有限公司　19834251</t>
+  </si>
+  <si>
+    <t>*1MARKETPOST_NO*</t>
+  </si>
+  <si>
+    <t>POST_NO</t>
+  </si>
+  <si>
+    <t>*POST_AMT*</t>
+  </si>
+  <si>
+    <t>POST_AMT</t>
+  </si>
+  <si>
+    <t>填發日期：#PrintDate#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMP_NAM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>MARKET_NO</t>
-  </si>
-  <si>
-    <t>*MARKET_AMT*</t>
-  </si>
-  <si>
-    <t>MARKET_AMT</t>
-  </si>
-  <si>
-    <t>*19834251*</t>
-  </si>
-  <si>
-    <t>　　台灣銀行股份有限公司　19834251</t>
-  </si>
-  <si>
-    <t>*1MARKETPOST_NO*</t>
-  </si>
-  <si>
-    <t>POST_NO</t>
-  </si>
-  <si>
-    <t>*POST_AMT*</t>
-  </si>
-  <si>
-    <t>POST_AMT</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1440,19 +1459,541 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1461,74 +2002,17 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1545,6 +2029,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -1581,524 +2074,50 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2418,53 +2437,53 @@
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="O4" sqref="O4:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="6.125" customWidth="1"/>
-    <col min="11" max="11" width="0.875" customWidth="1"/>
-    <col min="12" max="14" width="4.625" customWidth="1"/>
-    <col min="15" max="15" width="7.625" customWidth="1"/>
-    <col min="16" max="16" width="5.625" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" customWidth="1"/>
+    <col min="12" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5">
+    <row r="1" spans="1:17" ht="19.8">
       <c r="A1" s="1"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="248" t="s">
+      <c r="L1" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="249"/>
-      <c r="N1" s="249"/>
-      <c r="O1" s="249"/>
-      <c r="P1" s="249"/>
-      <c r="Q1" s="249"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1">
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.8" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2479,7 +2498,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>
@@ -2487,291 +2506,291 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="123"/>
-      <c r="D3" s="250" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="252"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="253" t="s">
+      <c r="L3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="122" t="s">
+      <c r="M3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="250" t="s">
+      <c r="N3" s="33"/>
+      <c r="O3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="254"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="131" t="s">
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="40"/>
+      <c r="O4" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A5" s="31"/>
+      <c r="B5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50"/>
+      <c r="O5" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="231"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="106"/>
-      <c r="O4" s="226" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="228"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A5" s="121"/>
-      <c r="B5" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="229" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="230"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="253"/>
-      <c r="M5" s="232" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="233"/>
-      <c r="O5" s="236" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="238"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="121"/>
-      <c r="B6" s="242" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="243"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="244"/>
-      <c r="F6" s="245" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="246"/>
-      <c r="J6" s="247"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="253"/>
-      <c r="M6" s="234"/>
-      <c r="N6" s="235"/>
-      <c r="O6" s="239"/>
-      <c r="P6" s="240"/>
-      <c r="Q6" s="241"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A7" s="121"/>
-      <c r="B7" s="105" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="212" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="213"/>
-      <c r="F7" s="214" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="215"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="253"/>
-      <c r="M7" s="147" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="216" t="s">
+      <c r="N7" s="73"/>
+      <c r="O7" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="218"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="121"/>
-      <c r="B8" s="105" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="219" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="220"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="78"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="253"/>
-      <c r="M8" s="221" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="222"/>
-      <c r="O8" s="152" t="s">
+      <c r="N8" s="80"/>
+      <c r="O8" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="153"/>
-      <c r="Q8" s="225"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="85"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="121"/>
-      <c r="B9" s="136" t="s">
+      <c r="A9" s="31"/>
+      <c r="B9" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="137"/>
-      <c r="D9" s="186" t="s">
+      <c r="C9" s="87"/>
+      <c r="D9" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="188" t="s">
+      <c r="H9" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="197" t="s">
+      <c r="L9" s="37"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="198"/>
-      <c r="Q9" s="199"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
     </row>
     <row r="10" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A10" s="121"/>
-      <c r="B10" s="105" t="s">
+      <c r="A10" s="31"/>
+      <c r="B10" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="186" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="194"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
       <c r="K10" s="11"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="200" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="201"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="206" t="s">
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" s="209"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A11" s="121"/>
-      <c r="B11" s="147" t="s">
+      <c r="Q10" s="128"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="169" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="194"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
       <c r="K11" s="11"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="207"/>
-      <c r="Q11" s="210"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="129"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A12" s="121"/>
-      <c r="B12" s="171" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="172"/>
-      <c r="D12" s="175" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="176"/>
-      <c r="F12" s="176"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
       <c r="G12" s="13"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="177" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="178"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="207"/>
-      <c r="Q12" s="210"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A13" s="121"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="174"/>
-      <c r="D13" s="183" t="s">
+      <c r="N12" s="97"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="129"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="185"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="196"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="182"/>
-      <c r="P13" s="208"/>
-      <c r="Q13" s="211"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="101"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="130"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="16"/>
@@ -2811,28 +2830,28 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="19.5">
+    <row r="16" spans="1:17" ht="19.8">
       <c r="A16" s="1"/>
-      <c r="B16" s="120" t="s">
+      <c r="B16" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="120"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1">
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.8" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>54</v>
@@ -2856,209 +2875,209 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="122" t="s">
+      <c r="B18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="123"/>
-      <c r="D18" s="124" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127" t="s">
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="123"/>
-      <c r="I18" s="128" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
-      <c r="O18" s="129"/>
-      <c r="P18" s="129"/>
-      <c r="Q18" s="130"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="152"/>
     </row>
     <row r="19" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A19" s="121"/>
-      <c r="B19" s="105" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="106"/>
-      <c r="D19" s="131" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="131" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="132"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="134" t="s">
+      <c r="N19" s="42"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="135"/>
+      <c r="Q19" s="155"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="121"/>
-      <c r="B20" s="105" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="108" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="107" t="s">
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="106"/>
-      <c r="O20" s="158" t="s">
+      <c r="N20" s="40"/>
+      <c r="O20" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="160"/>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="137"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="121"/>
-      <c r="B21" s="161" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="163" t="s">
+      <c r="C21" s="139"/>
+      <c r="D21" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="164"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="164"/>
-      <c r="K21" s="164"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="107" t="s">
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="106"/>
-      <c r="O21" s="166" t="s">
+      <c r="N21" s="40"/>
+      <c r="O21" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="P21" s="167"/>
-      <c r="Q21" s="168"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="145"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A22" s="121"/>
-      <c r="B22" s="136" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="137"/>
-      <c r="D22" s="138" t="s">
+      <c r="C22" s="87"/>
+      <c r="D22" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="140"/>
-      <c r="M22" s="141" t="s">
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="142"/>
+      <c r="N22" s="160"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="20"/>
     </row>
-    <row r="23" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A23" s="121"/>
-      <c r="B23" s="147" t="s">
+    <row r="23" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A23" s="31"/>
+      <c r="B23" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="99" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="100"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102" t="s">
+      <c r="E23" s="166"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="103"/>
-      <c r="I23" s="99" t="s">
+      <c r="H23" s="73"/>
+      <c r="I23" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="144"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="162"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A24" s="121"/>
-      <c r="B24" s="148" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="149"/>
-      <c r="D24" s="152" t="s">
+      <c r="C24" s="170"/>
+      <c r="D24" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="144"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="173"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="162"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A25" s="121"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="155" t="s">
+    <row r="25" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="172"/>
+      <c r="D25" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="157"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="146"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="163"/>
+      <c r="N25" s="164"/>
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="24"/>
@@ -3101,28 +3120,28 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="1:17" ht="19.5">
+    <row r="28" spans="1:17" ht="19.8">
       <c r="A28" s="1"/>
-      <c r="B28" s="120" t="s">
+      <c r="B28" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" thickBot="1">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.8" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
@@ -3144,461 +3163,461 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A30" s="121" t="s">
+      <c r="A30" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="122" t="s">
+      <c r="B30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="123"/>
-      <c r="D30" s="124" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="127" t="s">
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="123"/>
-      <c r="I30" s="128" t="s">
+      <c r="H30" s="33"/>
+      <c r="I30" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="129"/>
-      <c r="Q30" s="130"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="152"/>
     </row>
     <row r="31" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A31" s="121"/>
-      <c r="B31" s="105" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="131" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="131" t="s">
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="132"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="134" t="s">
+      <c r="N31" s="42"/>
+      <c r="O31" s="153"/>
+      <c r="P31" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="Q31" s="135"/>
+      <c r="Q31" s="155"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="121"/>
-      <c r="B32" s="105" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="107" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="106"/>
-      <c r="F32" s="108" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="111" t="s">
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="112"/>
-      <c r="O32" s="115" t="s">
+      <c r="N32" s="178"/>
+      <c r="O32" s="181" t="s">
         <v>68</v>
       </c>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="117"/>
+      <c r="P32" s="182"/>
+      <c r="Q32" s="183"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="121"/>
-      <c r="B33" s="105" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="106"/>
-      <c r="D33" s="108" t="s">
+      <c r="C33" s="40"/>
+      <c r="D33" s="132" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="113" t="s">
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="179"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="119"/>
-    </row>
-    <row r="34" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A34" s="121"/>
-      <c r="B34" s="97" t="s">
+      <c r="P33" s="184"/>
+      <c r="Q33" s="185"/>
+    </row>
+    <row r="34" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="99" t="s">
+      <c r="C34" s="202"/>
+      <c r="D34" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="100"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102" t="s">
+      <c r="E34" s="166"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="99" t="s">
+      <c r="H34" s="73"/>
+      <c r="I34" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="102" t="s">
+      <c r="J34" s="166"/>
+      <c r="K34" s="166"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="103"/>
-      <c r="O34" s="99" t="s">
+      <c r="N34" s="73"/>
+      <c r="O34" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="104"/>
-    </row>
-    <row r="35" spans="1:17" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="121"/>
-      <c r="B35" s="82" t="s">
+      <c r="P34" s="166"/>
+      <c r="Q34" s="203"/>
+    </row>
+    <row r="35" spans="1:17" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="186" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84" t="s">
+      <c r="C35" s="187"/>
+      <c r="D35" s="188" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="87" t="s">
+      <c r="E35" s="189"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="89"/>
-    </row>
-    <row r="36" spans="1:17" ht="17.25" thickTop="1">
-      <c r="A36" s="121"/>
-      <c r="B36" s="90" t="s">
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="192"/>
+      <c r="N35" s="192"/>
+      <c r="O35" s="192"/>
+      <c r="P35" s="192"/>
+      <c r="Q35" s="193"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.8" thickTop="1">
+      <c r="A36" s="31"/>
+      <c r="B36" s="194" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92" t="s">
+      <c r="C36" s="195"/>
+      <c r="D36" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="94" t="s">
+      <c r="E36" s="197"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="H36" s="91"/>
-      <c r="I36" s="92" t="s">
+      <c r="H36" s="195"/>
+      <c r="I36" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="J36" s="95"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="96"/>
+      <c r="J36" s="199"/>
+      <c r="K36" s="197"/>
+      <c r="L36" s="197"/>
+      <c r="M36" s="197"/>
+      <c r="N36" s="197"/>
+      <c r="O36" s="197"/>
+      <c r="P36" s="197"/>
+      <c r="Q36" s="200"/>
     </row>
     <row r="37" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A37" s="121"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="204" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="36" t="s">
+      <c r="D37" s="208"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="39" t="s">
+      <c r="K37" s="213" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="41"/>
+      <c r="L37" s="214"/>
+      <c r="M37" s="214"/>
+      <c r="N37" s="214"/>
+      <c r="O37" s="214"/>
+      <c r="P37" s="214"/>
+      <c r="Q37" s="215"/>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="121"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="61" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="205"/>
+      <c r="C38" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="67" t="s">
+      <c r="D38" s="217"/>
+      <c r="E38" s="217"/>
+      <c r="F38" s="217"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="217"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="222" t="s">
+        <v>85</v>
+      </c>
+      <c r="L38" s="223"/>
+      <c r="M38" s="223"/>
+      <c r="N38" s="223"/>
+      <c r="O38" s="223"/>
+      <c r="P38" s="223"/>
+      <c r="Q38" s="224"/>
+    </row>
+    <row r="39" spans="1:17" ht="25.8">
+      <c r="A39" s="31"/>
+      <c r="B39" s="206"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="211"/>
+      <c r="K39" s="225" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" s="226"/>
+      <c r="M39" s="226"/>
+      <c r="N39" s="226"/>
+      <c r="O39" s="226"/>
+      <c r="P39" s="226"/>
+      <c r="Q39" s="227"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A40" s="31"/>
+      <c r="B40" s="228" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="229"/>
+      <c r="H40" s="229"/>
+      <c r="I40" s="230"/>
+      <c r="J40" s="211"/>
+      <c r="K40" s="237" t="s">
+        <v>72</v>
+      </c>
+      <c r="L40" s="238"/>
+      <c r="M40" s="238"/>
+      <c r="N40" s="238"/>
+      <c r="O40" s="238"/>
+      <c r="P40" s="238"/>
+      <c r="Q40" s="239"/>
+    </row>
+    <row r="41" spans="1:17" ht="25.8">
+      <c r="A41" s="31"/>
+      <c r="B41" s="231"/>
+      <c r="C41" s="232"/>
+      <c r="D41" s="232"/>
+      <c r="E41" s="232"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="232"/>
+      <c r="H41" s="232"/>
+      <c r="I41" s="233"/>
+      <c r="J41" s="211"/>
+      <c r="K41" s="225" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="69"/>
-    </row>
-    <row r="39" spans="1:17" ht="26.25">
-      <c r="A39" s="121"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="47"/>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A40" s="121"/>
-      <c r="B40" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="81"/>
-    </row>
-    <row r="41" spans="1:17" ht="26.25">
-      <c r="A41" s="121"/>
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="45" t="s">
+      <c r="L41" s="226"/>
+      <c r="M41" s="226"/>
+      <c r="N41" s="226"/>
+      <c r="O41" s="226"/>
+      <c r="P41" s="226"/>
+      <c r="Q41" s="227"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="31"/>
+      <c r="B42" s="231"/>
+      <c r="C42" s="232"/>
+      <c r="D42" s="232"/>
+      <c r="E42" s="232"/>
+      <c r="F42" s="232"/>
+      <c r="G42" s="232"/>
+      <c r="H42" s="232"/>
+      <c r="I42" s="233"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="47"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="121"/>
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="74"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="33" t="s">
+      <c r="L42" s="243"/>
+      <c r="M42" s="243"/>
+      <c r="N42" s="243"/>
+      <c r="O42" s="243"/>
+      <c r="P42" s="243"/>
+      <c r="Q42" s="244"/>
+    </row>
+    <row r="43" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="232"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="232"/>
+      <c r="F43" s="232"/>
+      <c r="G43" s="232"/>
+      <c r="H43" s="232"/>
+      <c r="I43" s="233"/>
+      <c r="J43" s="210" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="213" t="s">
         <v>77</v>
       </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="35"/>
-    </row>
-    <row r="43" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A43" s="121"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="39" t="s">
+      <c r="L43" s="214"/>
+      <c r="M43" s="214"/>
+      <c r="N43" s="214"/>
+      <c r="O43" s="214"/>
+      <c r="P43" s="214"/>
+      <c r="Q43" s="215"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="31"/>
+      <c r="B44" s="231"/>
+      <c r="C44" s="232"/>
+      <c r="D44" s="232"/>
+      <c r="E44" s="232"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="232"/>
+      <c r="I44" s="233"/>
+      <c r="J44" s="211"/>
+      <c r="K44" s="246" t="s">
         <v>78</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="121"/>
-      <c r="B44" s="73"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="42" t="s">
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
+      <c r="N44" s="247"/>
+      <c r="O44" s="247"/>
+      <c r="P44" s="247"/>
+      <c r="Q44" s="248"/>
+    </row>
+    <row r="45" spans="1:17" ht="25.8">
+      <c r="A45" s="31"/>
+      <c r="B45" s="231"/>
+      <c r="C45" s="232"/>
+      <c r="D45" s="232"/>
+      <c r="E45" s="232"/>
+      <c r="F45" s="232"/>
+      <c r="G45" s="232"/>
+      <c r="H45" s="232"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="211"/>
+      <c r="K45" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="44"/>
-    </row>
-    <row r="45" spans="1:17" ht="26.25">
-      <c r="A45" s="121"/>
-      <c r="B45" s="73"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="45" t="s">
+      <c r="L45" s="226"/>
+      <c r="M45" s="226"/>
+      <c r="N45" s="226"/>
+      <c r="O45" s="226"/>
+      <c r="P45" s="226"/>
+      <c r="Q45" s="227"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="31"/>
+      <c r="B46" s="231"/>
+      <c r="C46" s="232"/>
+      <c r="D46" s="232"/>
+      <c r="E46" s="232"/>
+      <c r="F46" s="232"/>
+      <c r="G46" s="232"/>
+      <c r="H46" s="232"/>
+      <c r="I46" s="233"/>
+      <c r="J46" s="211"/>
+      <c r="K46" s="249" t="s">
         <v>80</v>
       </c>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="47"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="121"/>
-      <c r="B46" s="73"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="74"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="74"/>
-      <c r="G46" s="74"/>
-      <c r="H46" s="74"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="48" t="s">
+      <c r="L46" s="250"/>
+      <c r="M46" s="250"/>
+      <c r="N46" s="250"/>
+      <c r="O46" s="250"/>
+      <c r="P46" s="250"/>
+      <c r="Q46" s="251"/>
+    </row>
+    <row r="47" spans="1:17" ht="25.8">
+      <c r="A47" s="31"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="232"/>
+      <c r="E47" s="232"/>
+      <c r="F47" s="232"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="232"/>
+      <c r="I47" s="233"/>
+      <c r="J47" s="211"/>
+      <c r="K47" s="225" t="s">
         <v>81</v>
       </c>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="50"/>
-    </row>
-    <row r="47" spans="1:17" ht="26.25">
-      <c r="A47" s="121"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="45" t="s">
+      <c r="L47" s="226"/>
+      <c r="M47" s="226"/>
+      <c r="N47" s="226"/>
+      <c r="O47" s="226"/>
+      <c r="P47" s="226"/>
+      <c r="Q47" s="227"/>
+    </row>
+    <row r="48" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="234"/>
+      <c r="C48" s="235"/>
+      <c r="D48" s="235"/>
+      <c r="E48" s="235"/>
+      <c r="F48" s="235"/>
+      <c r="G48" s="235"/>
+      <c r="H48" s="235"/>
+      <c r="I48" s="236"/>
+      <c r="J48" s="245"/>
+      <c r="K48" s="252" t="s">
         <v>82</v>
       </c>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="47"/>
-    </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A48" s="121"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="53"/>
+      <c r="L48" s="253"/>
+      <c r="M48" s="253"/>
+      <c r="N48" s="253"/>
+      <c r="O48" s="253"/>
+      <c r="P48" s="253"/>
+      <c r="Q48" s="254"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3"/>
@@ -3638,25 +3657,25 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="21">
+    <row r="51" spans="1:17" ht="22.2">
       <c r="A51" s="27"/>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="240" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="C51" s="240"/>
+      <c r="D51" s="240"/>
+      <c r="E51" s="240"/>
+      <c r="F51" s="240"/>
+      <c r="G51" s="240"/>
+      <c r="H51" s="240"/>
+      <c r="I51" s="240"/>
+      <c r="J51" s="240"/>
+      <c r="K51" s="240"/>
+      <c r="L51" s="240"/>
+      <c r="M51" s="240"/>
+      <c r="N51" s="240"/>
+      <c r="O51" s="240"/>
+      <c r="P51" s="240"/>
       <c r="Q51" s="27"/>
     </row>
     <row r="52" spans="1:17">
@@ -3796,22 +3815,22 @@
       <c r="B58" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="241" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
+      <c r="D58" s="241"/>
+      <c r="E58" s="241"/>
+      <c r="F58" s="241"/>
+      <c r="G58" s="241"/>
+      <c r="H58" s="241"/>
+      <c r="I58" s="241"/>
+      <c r="J58" s="241"/>
+      <c r="K58" s="241"/>
+      <c r="L58" s="241"/>
+      <c r="M58" s="241"/>
+      <c r="N58" s="241"/>
+      <c r="O58" s="241"/>
+      <c r="P58" s="241"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17">
@@ -3990,50 +4009,61 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L3:L13"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="M12:O13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="M10:O11"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="C58:P58"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="B40:I48"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="A30:A48"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="M20:N20"/>
@@ -4058,63 +4088,53 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="A30:A48"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="B40:I48"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="C58:P58"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="J43:J48"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L3:L13"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
+++ b/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Web\App_Data\Payment\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C439D338-AABC-4830-AE37-09C230E0FDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F68E28-D0C1-455A-B6FF-3C578C7FBEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
   </bookViews>
   <sheets>
     <sheet name="繳費單" sheetId="3" r:id="rId1"/>
@@ -236,15 +236,9 @@
     <t>P_KIND</t>
   </si>
   <si>
-    <t>共分P_NUM期，本期為第P_TIME期</t>
-  </si>
-  <si>
     <t>P_KIND共分P_NUM期，本期為第P_TIME期</t>
   </si>
   <si>
-    <t>E1年E2月E3日　(逾期繳款不予受理)</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>南投縣政府環境保護局</t>
   </si>
   <si>
-    <t>　新台幣　F_AMTC</t>
-  </si>
-  <si>
     <t>4750</t>
   </si>
   <si>
@@ -285,9 +276,6 @@
   </si>
   <si>
     <t>*19834251*</t>
-  </si>
-  <si>
-    <t>　　台灣銀行股份有限公司　19834251</t>
   </si>
   <si>
     <t>*1MARKETPOST_NO*</t>
@@ -311,6 +299,22 @@
   </si>
   <si>
     <t>MARKET_NO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>共分#P_NUM#期，本期為第#P_TIME#期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PayEndDate#　(逾期繳款不予受理)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>　新台幣　#F_AMTC#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣銀行股份有限公司　19834251</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1369,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1561,6 +1565,57 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1630,57 +1685,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2004,15 +2008,6 @@
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2029,15 +2024,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2092,15 +2078,6 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2118,6 +2095,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2437,53 +2432,53 @@
   <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:Q4"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" customWidth="1"/>
-    <col min="11" max="11" width="0.88671875" customWidth="1"/>
-    <col min="12" max="14" width="4.6640625" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="2.625" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="9" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="6.125" customWidth="1"/>
+    <col min="11" max="11" width="0.875" customWidth="1"/>
+    <col min="12" max="14" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="7.625" customWidth="1"/>
+    <col min="16" max="16" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.8">
+    <row r="1" spans="1:17" ht="19.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-    </row>
-    <row r="2" spans="1:17" ht="16.8" thickBot="1">
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2498,7 +2493,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>
@@ -2543,7 +2538,7 @@
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="41" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="42"/>
@@ -2613,34 +2608,34 @@
       <c r="P6" s="57"/>
       <c r="Q6" s="58"/>
     </row>
-    <row r="7" spans="1:17" ht="16.8" thickBot="1">
+    <row r="7" spans="1:17" ht="17.25" thickBot="1">
       <c r="A7" s="31"/>
       <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="40"/>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
       <c r="K7" s="7"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="93"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
       <c r="A8" s="31"/>
@@ -2648,35 +2643,35 @@
         <v>8</v>
       </c>
       <c r="C8" s="40"/>
-      <c r="D8" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="78"/>
+      <c r="D8" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="8"/>
       <c r="L8" s="37"/>
-      <c r="M8" s="79" t="s">
+      <c r="M8" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="85"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
       <c r="A9" s="31"/>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="87"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="106"/>
@@ -2688,10 +2683,10 @@
       <c r="J9" s="111"/>
       <c r="K9" s="7"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="82"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
       <c r="O9" s="116" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P9" s="117"/>
       <c r="Q9" s="118"/>
@@ -2703,7 +2698,7 @@
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="105" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="106"/>
       <c r="F10" s="106"/>
@@ -2723,17 +2718,17 @@
       </c>
       <c r="Q10" s="128"/>
     </row>
-    <row r="11" spans="1:17" ht="16.8" thickBot="1">
+    <row r="11" spans="1:17" ht="17.25" thickBot="1">
       <c r="A11" s="31"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
       <c r="G11" s="12"/>
       <c r="H11" s="108"/>
       <c r="I11" s="112"/>
@@ -2748,47 +2743,47 @@
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
       <c r="A12" s="31"/>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="13"/>
       <c r="H12" s="108"/>
       <c r="I12" s="112"/>
       <c r="J12" s="113"/>
       <c r="K12" s="14"/>
       <c r="L12" s="37"/>
-      <c r="M12" s="96" t="s">
+      <c r="M12" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="97"/>
-      <c r="O12" s="98"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="126"/>
       <c r="Q12" s="129"/>
     </row>
-    <row r="13" spans="1:17" ht="16.8" thickBot="1">
+    <row r="13" spans="1:17" ht="17.25" thickBot="1">
       <c r="A13" s="31"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="109"/>
       <c r="I13" s="114"/>
       <c r="J13" s="115"/>
       <c r="K13" s="15"/>
       <c r="L13" s="37"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="101"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
       <c r="P13" s="127"/>
       <c r="Q13" s="130"/>
     </row>
@@ -2830,28 +2825,28 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="19.8">
+    <row r="16" spans="1:17" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
-      <c r="Q16" s="65"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.8" thickBot="1">
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>54</v>
@@ -2941,7 +2936,7 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="132" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G20" s="133"/>
       <c r="H20" s="133"/>
@@ -2954,7 +2949,7 @@
       </c>
       <c r="N20" s="40"/>
       <c r="O20" s="135" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P20" s="136"/>
       <c r="Q20" s="137"/>
@@ -2966,7 +2961,7 @@
       </c>
       <c r="C21" s="139"/>
       <c r="D21" s="140" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E21" s="141"/>
       <c r="F21" s="141"/>
@@ -2981,19 +2976,19 @@
       </c>
       <c r="N21" s="40"/>
       <c r="O21" s="143" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P21" s="144"/>
       <c r="Q21" s="145"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1">
       <c r="A22" s="31"/>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="156" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="157"/>
       <c r="F22" s="157"/>
@@ -3011,23 +3006,23 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="20"/>
     </row>
-    <row r="23" spans="1:17" ht="16.8" thickBot="1">
+    <row r="23" spans="1:17" ht="17.25" thickBot="1">
       <c r="A23" s="31"/>
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="165" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="166"/>
       <c r="F23" s="167"/>
       <c r="G23" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="73"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="165" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J23" s="166"/>
       <c r="K23" s="166"/>
@@ -3044,16 +3039,16 @@
         <v>26</v>
       </c>
       <c r="C24" s="170"/>
-      <c r="D24" s="83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
+      <c r="D24" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
       <c r="L24" s="173"/>
       <c r="M24" s="161"/>
       <c r="N24" s="162"/>
@@ -3061,12 +3056,12 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="1:17" ht="16.8" thickBot="1">
+    <row r="25" spans="1:17" ht="17.25" thickBot="1">
       <c r="A25" s="31"/>
       <c r="B25" s="171"/>
       <c r="C25" s="172"/>
       <c r="D25" s="174" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25" s="175"/>
       <c r="F25" s="175"/>
@@ -3120,28 +3115,28 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="1:17" ht="19.8">
+    <row r="28" spans="1:17" ht="19.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="65"/>
-    </row>
-    <row r="29" spans="1:17" ht="16.8" thickBot="1">
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
@@ -3229,7 +3224,7 @@
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="132" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G32" s="133"/>
       <c r="H32" s="133"/>
@@ -3242,7 +3237,7 @@
       </c>
       <c r="N32" s="178"/>
       <c r="O32" s="181" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P32" s="182"/>
       <c r="Q32" s="183"/>
@@ -3254,7 +3249,7 @@
       </c>
       <c r="C33" s="40"/>
       <c r="D33" s="132" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="133"/>
       <c r="F33" s="133"/>
@@ -3272,23 +3267,23 @@
       <c r="P33" s="184"/>
       <c r="Q33" s="185"/>
     </row>
-    <row r="34" spans="1:17" ht="16.8" thickBot="1">
+    <row r="34" spans="1:17" ht="17.25" thickBot="1">
       <c r="A34" s="31"/>
       <c r="B34" s="201" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="202"/>
       <c r="D34" s="165" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="166"/>
       <c r="F34" s="167"/>
       <c r="G34" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="H34" s="73"/>
+      <c r="H34" s="90"/>
       <c r="I34" s="165" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J34" s="166"/>
       <c r="K34" s="166"/>
@@ -3296,26 +3291,26 @@
       <c r="M34" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="N34" s="73"/>
+      <c r="N34" s="90"/>
       <c r="O34" s="165" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P34" s="166"/>
       <c r="Q34" s="203"/>
     </row>
-    <row r="35" spans="1:17" ht="17.399999999999999" thickTop="1" thickBot="1">
+    <row r="35" spans="1:17" ht="18" thickTop="1" thickBot="1">
       <c r="A35" s="31"/>
       <c r="B35" s="186" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="187"/>
       <c r="D35" s="188" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" s="189"/>
       <c r="F35" s="190"/>
       <c r="G35" s="191" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="H35" s="192"/>
       <c r="I35" s="192"/>
@@ -3328,14 +3323,14 @@
       <c r="P35" s="192"/>
       <c r="Q35" s="193"/>
     </row>
-    <row r="36" spans="1:17" ht="16.8" thickTop="1">
+    <row r="36" spans="1:17" ht="17.25" thickTop="1">
       <c r="A36" s="31"/>
       <c r="B36" s="194" t="s">
         <v>29</v>
       </c>
       <c r="C36" s="195"/>
       <c r="D36" s="196" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E36" s="197"/>
       <c r="F36" s="195"/>
@@ -3344,7 +3339,7 @@
       </c>
       <c r="H36" s="195"/>
       <c r="I36" s="196" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J36" s="199"/>
       <c r="K36" s="197"/>
@@ -3361,7 +3356,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="207" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D37" s="208"/>
       <c r="E37" s="208"/>
@@ -3372,252 +3367,252 @@
       <c r="J37" s="210" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="213" t="s">
-        <v>74</v>
-      </c>
-      <c r="L37" s="214"/>
-      <c r="M37" s="214"/>
-      <c r="N37" s="214"/>
-      <c r="O37" s="214"/>
-      <c r="P37" s="214"/>
-      <c r="Q37" s="215"/>
+      <c r="K37" s="249" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="250"/>
+      <c r="M37" s="250"/>
+      <c r="N37" s="250"/>
+      <c r="O37" s="250"/>
+      <c r="P37" s="250"/>
+      <c r="Q37" s="251"/>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="31"/>
       <c r="B38" s="205"/>
-      <c r="C38" s="216" t="s">
+      <c r="C38" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="217"/>
-      <c r="E38" s="217"/>
-      <c r="F38" s="217"/>
-      <c r="G38" s="217"/>
-      <c r="H38" s="217"/>
-      <c r="I38" s="218"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="215"/>
       <c r="J38" s="211"/>
-      <c r="K38" s="222" t="s">
-        <v>85</v>
-      </c>
-      <c r="L38" s="223"/>
-      <c r="M38" s="223"/>
-      <c r="N38" s="223"/>
-      <c r="O38" s="223"/>
-      <c r="P38" s="223"/>
-      <c r="Q38" s="224"/>
-    </row>
-    <row r="39" spans="1:17" ht="25.8">
+      <c r="K38" s="219" t="s">
+        <v>81</v>
+      </c>
+      <c r="L38" s="220"/>
+      <c r="M38" s="220"/>
+      <c r="N38" s="220"/>
+      <c r="O38" s="220"/>
+      <c r="P38" s="220"/>
+      <c r="Q38" s="221"/>
+    </row>
+    <row r="39" spans="1:17" ht="24">
       <c r="A39" s="31"/>
       <c r="B39" s="206"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="220"/>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="220"/>
-      <c r="H39" s="220"/>
-      <c r="I39" s="221"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="217"/>
+      <c r="E39" s="217"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="218"/>
       <c r="J39" s="211"/>
-      <c r="K39" s="225" t="s">
-        <v>73</v>
-      </c>
-      <c r="L39" s="226"/>
-      <c r="M39" s="226"/>
-      <c r="N39" s="226"/>
-      <c r="O39" s="226"/>
-      <c r="P39" s="226"/>
-      <c r="Q39" s="227"/>
+      <c r="K39" s="246" t="s">
+        <v>70</v>
+      </c>
+      <c r="L39" s="247"/>
+      <c r="M39" s="247"/>
+      <c r="N39" s="247"/>
+      <c r="O39" s="247"/>
+      <c r="P39" s="247"/>
+      <c r="Q39" s="248"/>
     </row>
     <row r="40" spans="1:17" ht="16.5" customHeight="1">
       <c r="A40" s="31"/>
-      <c r="B40" s="228" t="s">
+      <c r="B40" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="229"/>
-      <c r="D40" s="229"/>
-      <c r="E40" s="229"/>
-      <c r="F40" s="229"/>
-      <c r="G40" s="229"/>
-      <c r="H40" s="229"/>
-      <c r="I40" s="230"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="223"/>
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="224"/>
       <c r="J40" s="211"/>
-      <c r="K40" s="237" t="s">
+      <c r="K40" s="231" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="232"/>
+      <c r="M40" s="232"/>
+      <c r="N40" s="232"/>
+      <c r="O40" s="232"/>
+      <c r="P40" s="232"/>
+      <c r="Q40" s="233"/>
+    </row>
+    <row r="41" spans="1:17" ht="24">
+      <c r="A41" s="31"/>
+      <c r="B41" s="225"/>
+      <c r="C41" s="226"/>
+      <c r="D41" s="226"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="226"/>
+      <c r="H41" s="226"/>
+      <c r="I41" s="227"/>
+      <c r="J41" s="211"/>
+      <c r="K41" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="238"/>
-      <c r="M40" s="238"/>
-      <c r="N40" s="238"/>
-      <c r="O40" s="238"/>
-      <c r="P40" s="238"/>
-      <c r="Q40" s="239"/>
-    </row>
-    <row r="41" spans="1:17" ht="25.8">
-      <c r="A41" s="31"/>
-      <c r="B41" s="231"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="232"/>
-      <c r="E41" s="232"/>
-      <c r="F41" s="232"/>
-      <c r="G41" s="232"/>
-      <c r="H41" s="232"/>
-      <c r="I41" s="233"/>
-      <c r="J41" s="211"/>
-      <c r="K41" s="225" t="s">
-        <v>75</v>
-      </c>
-      <c r="L41" s="226"/>
-      <c r="M41" s="226"/>
-      <c r="N41" s="226"/>
-      <c r="O41" s="226"/>
-      <c r="P41" s="226"/>
-      <c r="Q41" s="227"/>
+      <c r="L41" s="247"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="247"/>
+      <c r="O41" s="247"/>
+      <c r="P41" s="247"/>
+      <c r="Q41" s="248"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="31"/>
-      <c r="B42" s="231"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="232"/>
-      <c r="E42" s="232"/>
-      <c r="F42" s="232"/>
-      <c r="G42" s="232"/>
-      <c r="H42" s="232"/>
-      <c r="I42" s="233"/>
+      <c r="B42" s="225"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="226"/>
+      <c r="G42" s="226"/>
+      <c r="H42" s="226"/>
+      <c r="I42" s="227"/>
       <c r="J42" s="212"/>
-      <c r="K42" s="242" t="s">
-        <v>76</v>
-      </c>
-      <c r="L42" s="243"/>
-      <c r="M42" s="243"/>
-      <c r="N42" s="243"/>
-      <c r="O42" s="243"/>
-      <c r="P42" s="243"/>
-      <c r="Q42" s="244"/>
+      <c r="K42" s="236" t="s">
+        <v>73</v>
+      </c>
+      <c r="L42" s="237"/>
+      <c r="M42" s="237"/>
+      <c r="N42" s="237"/>
+      <c r="O42" s="237"/>
+      <c r="P42" s="237"/>
+      <c r="Q42" s="238"/>
     </row>
     <row r="43" spans="1:17" ht="26.25" customHeight="1">
       <c r="A43" s="31"/>
-      <c r="B43" s="231"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="232"/>
-      <c r="F43" s="232"/>
-      <c r="G43" s="232"/>
-      <c r="H43" s="232"/>
-      <c r="I43" s="233"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="227"/>
       <c r="J43" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="K43" s="213" t="s">
-        <v>77</v>
-      </c>
-      <c r="L43" s="214"/>
-      <c r="M43" s="214"/>
-      <c r="N43" s="214"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="214"/>
-      <c r="Q43" s="215"/>
+      <c r="K43" s="249" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" s="250"/>
+      <c r="M43" s="250"/>
+      <c r="N43" s="250"/>
+      <c r="O43" s="250"/>
+      <c r="P43" s="250"/>
+      <c r="Q43" s="251"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="31"/>
-      <c r="B44" s="231"/>
-      <c r="C44" s="232"/>
-      <c r="D44" s="232"/>
-      <c r="E44" s="232"/>
-      <c r="F44" s="232"/>
-      <c r="G44" s="232"/>
-      <c r="H44" s="232"/>
-      <c r="I44" s="233"/>
+      <c r="B44" s="225"/>
+      <c r="C44" s="226"/>
+      <c r="D44" s="226"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="226"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="226"/>
+      <c r="I44" s="227"/>
       <c r="J44" s="211"/>
-      <c r="K44" s="246" t="s">
-        <v>78</v>
-      </c>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
-      <c r="N44" s="247"/>
-      <c r="O44" s="247"/>
-      <c r="P44" s="247"/>
-      <c r="Q44" s="248"/>
-    </row>
-    <row r="45" spans="1:17" ht="25.8">
+      <c r="K44" s="219" t="s">
+        <v>85</v>
+      </c>
+      <c r="L44" s="220"/>
+      <c r="M44" s="220"/>
+      <c r="N44" s="220"/>
+      <c r="O44" s="220"/>
+      <c r="P44" s="220"/>
+      <c r="Q44" s="221"/>
+    </row>
+    <row r="45" spans="1:17" ht="24">
       <c r="A45" s="31"/>
-      <c r="B45" s="231"/>
-      <c r="C45" s="232"/>
-      <c r="D45" s="232"/>
-      <c r="E45" s="232"/>
-      <c r="F45" s="232"/>
-      <c r="G45" s="232"/>
-      <c r="H45" s="232"/>
-      <c r="I45" s="233"/>
+      <c r="B45" s="225"/>
+      <c r="C45" s="226"/>
+      <c r="D45" s="226"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="226"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="227"/>
       <c r="J45" s="211"/>
-      <c r="K45" s="225" t="s">
-        <v>79</v>
-      </c>
-      <c r="L45" s="226"/>
-      <c r="M45" s="226"/>
-      <c r="N45" s="226"/>
-      <c r="O45" s="226"/>
-      <c r="P45" s="226"/>
-      <c r="Q45" s="227"/>
+      <c r="K45" s="246" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="247"/>
+      <c r="M45" s="247"/>
+      <c r="N45" s="247"/>
+      <c r="O45" s="247"/>
+      <c r="P45" s="247"/>
+      <c r="Q45" s="248"/>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="31"/>
-      <c r="B46" s="231"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="232"/>
-      <c r="E46" s="232"/>
-      <c r="F46" s="232"/>
-      <c r="G46" s="232"/>
-      <c r="H46" s="232"/>
-      <c r="I46" s="233"/>
+      <c r="B46" s="225"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="226"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="226"/>
+      <c r="I46" s="227"/>
       <c r="J46" s="211"/>
-      <c r="K46" s="249" t="s">
-        <v>80</v>
-      </c>
-      <c r="L46" s="250"/>
-      <c r="M46" s="250"/>
-      <c r="N46" s="250"/>
-      <c r="O46" s="250"/>
-      <c r="P46" s="250"/>
-      <c r="Q46" s="251"/>
-    </row>
-    <row r="47" spans="1:17" ht="25.8">
+      <c r="K46" s="240" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="241"/>
+      <c r="M46" s="241"/>
+      <c r="N46" s="241"/>
+      <c r="O46" s="241"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="242"/>
+    </row>
+    <row r="47" spans="1:17" ht="24">
       <c r="A47" s="31"/>
-      <c r="B47" s="231"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="232"/>
-      <c r="E47" s="232"/>
-      <c r="F47" s="232"/>
-      <c r="G47" s="232"/>
-      <c r="H47" s="232"/>
-      <c r="I47" s="233"/>
+      <c r="B47" s="225"/>
+      <c r="C47" s="226"/>
+      <c r="D47" s="226"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="226"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="226"/>
+      <c r="I47" s="227"/>
       <c r="J47" s="211"/>
-      <c r="K47" s="225" t="s">
-        <v>81</v>
-      </c>
-      <c r="L47" s="226"/>
-      <c r="M47" s="226"/>
-      <c r="N47" s="226"/>
-      <c r="O47" s="226"/>
-      <c r="P47" s="226"/>
-      <c r="Q47" s="227"/>
-    </row>
-    <row r="48" spans="1:17" ht="16.8" thickBot="1">
+      <c r="K47" s="246" t="s">
+        <v>77</v>
+      </c>
+      <c r="L47" s="247"/>
+      <c r="M47" s="247"/>
+      <c r="N47" s="247"/>
+      <c r="O47" s="247"/>
+      <c r="P47" s="247"/>
+      <c r="Q47" s="248"/>
+    </row>
+    <row r="48" spans="1:17" ht="17.25" thickBot="1">
       <c r="A48" s="31"/>
-      <c r="B48" s="234"/>
-      <c r="C48" s="235"/>
-      <c r="D48" s="235"/>
-      <c r="E48" s="235"/>
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-      <c r="I48" s="236"/>
-      <c r="J48" s="245"/>
-      <c r="K48" s="252" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" s="253"/>
-      <c r="M48" s="253"/>
-      <c r="N48" s="253"/>
-      <c r="O48" s="253"/>
-      <c r="P48" s="253"/>
-      <c r="Q48" s="254"/>
+      <c r="B48" s="228"/>
+      <c r="C48" s="229"/>
+      <c r="D48" s="229"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="229"/>
+      <c r="G48" s="229"/>
+      <c r="H48" s="229"/>
+      <c r="I48" s="230"/>
+      <c r="J48" s="239"/>
+      <c r="K48" s="243" t="s">
+        <v>78</v>
+      </c>
+      <c r="L48" s="244"/>
+      <c r="M48" s="244"/>
+      <c r="N48" s="244"/>
+      <c r="O48" s="244"/>
+      <c r="P48" s="244"/>
+      <c r="Q48" s="245"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3"/>
@@ -3657,25 +3652,25 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="22.2">
+    <row r="51" spans="1:17" ht="21">
       <c r="A51" s="27"/>
-      <c r="B51" s="240" t="s">
+      <c r="B51" s="234" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="240"/>
-      <c r="D51" s="240"/>
-      <c r="E51" s="240"/>
-      <c r="F51" s="240"/>
-      <c r="G51" s="240"/>
-      <c r="H51" s="240"/>
-      <c r="I51" s="240"/>
-      <c r="J51" s="240"/>
-      <c r="K51" s="240"/>
-      <c r="L51" s="240"/>
-      <c r="M51" s="240"/>
-      <c r="N51" s="240"/>
-      <c r="O51" s="240"/>
-      <c r="P51" s="240"/>
+      <c r="C51" s="234"/>
+      <c r="D51" s="234"/>
+      <c r="E51" s="234"/>
+      <c r="F51" s="234"/>
+      <c r="G51" s="234"/>
+      <c r="H51" s="234"/>
+      <c r="I51" s="234"/>
+      <c r="J51" s="234"/>
+      <c r="K51" s="234"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="234"/>
+      <c r="N51" s="234"/>
+      <c r="O51" s="234"/>
+      <c r="P51" s="234"/>
       <c r="Q51" s="27"/>
     </row>
     <row r="52" spans="1:17">
@@ -3815,22 +3810,22 @@
       <c r="B58" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="241" t="s">
+      <c r="C58" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="241"/>
-      <c r="E58" s="241"/>
-      <c r="F58" s="241"/>
-      <c r="G58" s="241"/>
-      <c r="H58" s="241"/>
-      <c r="I58" s="241"/>
-      <c r="J58" s="241"/>
-      <c r="K58" s="241"/>
-      <c r="L58" s="241"/>
-      <c r="M58" s="241"/>
-      <c r="N58" s="241"/>
-      <c r="O58" s="241"/>
-      <c r="P58" s="241"/>
+      <c r="D58" s="235"/>
+      <c r="E58" s="235"/>
+      <c r="F58" s="235"/>
+      <c r="G58" s="235"/>
+      <c r="H58" s="235"/>
+      <c r="I58" s="235"/>
+      <c r="J58" s="235"/>
+      <c r="K58" s="235"/>
+      <c r="L58" s="235"/>
+      <c r="M58" s="235"/>
+      <c r="N58" s="235"/>
+      <c r="O58" s="235"/>
+      <c r="P58" s="235"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17">

--- a/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
+++ b/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Web\App_Data\Payment\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F68E28-D0C1-455A-B6FF-3C578C7FBEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AAC3E-F277-4E72-A214-6729E43458AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14160" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
   </bookViews>
   <sheets>
     <sheet name="繳費單" sheetId="3" r:id="rId1"/>
@@ -215,9 +215,6 @@
     <t>南投縣政府營建工程空氣污染防制費繳款單</t>
   </si>
   <si>
-    <t>填發日期：P1P年2P月3日</t>
-  </si>
-  <si>
     <t>銷帳編號：PAY_NO</t>
   </si>
   <si>
@@ -288,10 +285,6 @@
   </si>
   <si>
     <t>POST_AMT</t>
-  </si>
-  <si>
-    <t>填發日期：#PrintDate#</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>COMP_NAM</t>
@@ -315,6 +308,14 @@
   </si>
   <si>
     <t>台灣銀行股份有限公司　19834251</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>填發日期：#VerifyDate#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>填發日期：#VerifyDate#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1369,7 +1370,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,523 +1464,73 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1999,12 +1550,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -2015,15 +1560,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2060,59 +1596,530 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2429,62 +2436,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A42B41B-5406-4D83-8B9F-39323B45D171}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="2.625" customWidth="1"/>
-    <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="6.125" customWidth="1"/>
-    <col min="11" max="11" width="0.875" customWidth="1"/>
-    <col min="12" max="14" width="4.625" customWidth="1"/>
-    <col min="15" max="15" width="7.625" customWidth="1"/>
-    <col min="16" max="16" width="5.625" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.109375" customWidth="1"/>
+    <col min="11" max="11" width="0.88671875" customWidth="1"/>
+    <col min="12" max="14" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5">
+    <row r="1" spans="1:17" ht="19.8">
       <c r="A1" s="1"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="192" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1">
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.8" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2493,7 +2501,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>
@@ -2501,291 +2509,291 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="208" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="211" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="208" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="209"/>
+      <c r="Q3" s="212"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A4" s="107"/>
+      <c r="B4" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="118"/>
+      <c r="O4" s="214" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="215"/>
+      <c r="Q4" s="216"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A5" s="107"/>
+      <c r="B5" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="217" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="218"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="219" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="220"/>
+      <c r="O5" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
+      <c r="P5" s="224"/>
+      <c r="Q5" s="225"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="107"/>
+      <c r="B6" s="229" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="230"/>
+      <c r="D6" s="230"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="232" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="233"/>
+      <c r="H6" s="233"/>
+      <c r="I6" s="233"/>
+      <c r="J6" s="234"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="222"/>
+      <c r="O6" s="226"/>
+      <c r="P6" s="227"/>
+      <c r="Q6" s="228"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A7" s="107"/>
+      <c r="B7" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="194" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="195"/>
+      <c r="F7" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="44" t="s">
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="95"/>
+      <c r="O7" s="198" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="199"/>
+      <c r="Q7" s="200"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A8" s="107"/>
+      <c r="B8" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="201" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="202"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="203" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="204"/>
+      <c r="O8" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="207"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A9" s="107"/>
+      <c r="B9" s="154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="155"/>
+      <c r="D9" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="168" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="206"/>
+      <c r="O9" s="177" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="179"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A10" s="107"/>
+      <c r="B10" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="174"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="180" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="181"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="189"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A11" s="107"/>
+      <c r="B11" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="235" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="187"/>
+      <c r="Q11" s="190"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A12" s="107"/>
+      <c r="B12" s="237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="238"/>
+      <c r="D12" s="241" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="31"/>
-      <c r="B6" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="93"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="97"/>
-      <c r="O8" s="100" t="s">
+      <c r="N12" s="244"/>
+      <c r="O12" s="245"/>
+      <c r="P12" s="187"/>
+      <c r="Q12" s="190"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A13" s="107"/>
+      <c r="B13" s="239"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="249" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="116" t="s">
-        <v>63</v>
-      </c>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="128"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="129"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="129"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="E13" s="250"/>
+      <c r="F13" s="250"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="130"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="247"/>
+      <c r="O13" s="248"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="191"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="16"/>
@@ -2806,7 +2814,7 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" ht="10.050000000000001" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -2825,31 +2833,31 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="19.5">
+    <row r="16" spans="1:17" ht="19.8">
       <c r="A16" s="1"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" thickBot="1">
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="137"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.8" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2862,7 +2870,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
@@ -2870,125 +2878,125 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="146" t="s">
+      <c r="C18" s="109"/>
+      <c r="D18" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="109"/>
+      <c r="I18" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="150" t="s">
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+    </row>
+    <row r="19" spans="1:17" ht="25.05" customHeight="1">
+      <c r="A19" s="107"/>
+      <c r="B19" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="152"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="252"/>
+      <c r="O19" s="253"/>
+      <c r="P19" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="154" t="s">
+      <c r="Q19" s="123"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="107"/>
+      <c r="B20" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="118"/>
+      <c r="D20" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="Q19" s="155"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="31"/>
-      <c r="B20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="131" t="s">
+      <c r="E20" s="118"/>
+      <c r="F20" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="126"/>
+      <c r="H20" s="126"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="135" t="s">
+      <c r="N20" s="118"/>
+      <c r="O20" s="143" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="145"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="107"/>
+      <c r="B21" s="146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="118"/>
+      <c r="O21" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="137"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="31"/>
-      <c r="B21" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="143" t="s">
-        <v>65</v>
-      </c>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="145"/>
+      <c r="P21" s="152"/>
+      <c r="Q21" s="153"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="103" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="104"/>
+      <c r="C22" s="155"/>
       <c r="D22" s="156" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="157"/>
       <c r="F22" s="157"/>
@@ -3006,27 +3014,27 @@
       <c r="P22" s="19"/>
       <c r="Q22" s="20"/>
     </row>
-    <row r="23" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="89" t="s">
+    <row r="23" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A23" s="107"/>
+      <c r="B23" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="165" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="166"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168" t="s">
+      <c r="C23" s="95"/>
+      <c r="D23" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="90"/>
-      <c r="I23" s="165" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="167"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="161"/>
       <c r="N23" s="162"/>
       <c r="O23" s="21"/>
@@ -3034,43 +3042,43 @@
       <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="169" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="100" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="173"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="161"/>
       <c r="N24" s="162"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="22"/>
     </row>
-    <row r="25" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172"/>
-      <c r="D25" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
+    <row r="25" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A25" s="107"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="106"/>
       <c r="M25" s="163"/>
       <c r="N25" s="164"/>
       <c r="O25" s="23"/>
@@ -3096,7 +3104,7 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" ht="10.050000000000001" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3115,31 +3123,31 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
     </row>
-    <row r="28" spans="1:17" ht="19.5">
+    <row r="28" spans="1:17" ht="19.8">
       <c r="A28" s="1"/>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" thickBot="1">
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
+      <c r="N28" s="137"/>
+      <c r="O28" s="137"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="137"/>
+    </row>
+    <row r="29" spans="1:17" ht="16.8" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3158,461 +3166,461 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="146" t="s">
+      <c r="C30" s="109"/>
+      <c r="D30" s="110" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="109"/>
+      <c r="I30" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="150" t="s">
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="116"/>
+    </row>
+    <row r="31" spans="1:17" ht="25.05" customHeight="1">
+      <c r="A31" s="107"/>
+      <c r="B31" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="152"/>
-    </row>
-    <row r="31" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41" t="s">
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="252"/>
+      <c r="O31" s="253"/>
+      <c r="P31" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="42"/>
-      <c r="O31" s="153"/>
-      <c r="P31" s="154" t="s">
+      <c r="Q31" s="123"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="107"/>
+      <c r="B32" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="Q31" s="155"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="31"/>
-      <c r="B32" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="132" t="s">
+      <c r="E32" s="118"/>
+      <c r="F32" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="126"/>
+      <c r="L32" s="127"/>
+      <c r="M32" s="128" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="129"/>
+      <c r="O32" s="132" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="134"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="107"/>
+      <c r="B33" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="126"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="131"/>
+      <c r="O33" s="130" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="135"/>
+      <c r="Q33" s="136"/>
+    </row>
+    <row r="34" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A34" s="107"/>
+      <c r="B34" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="95"/>
+      <c r="I34" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="95"/>
+      <c r="O34" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="96"/>
+    </row>
+    <row r="35" spans="1:17" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="A35" s="107"/>
+      <c r="B35" s="138" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="139"/>
+      <c r="D35" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="141"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="177" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="178"/>
-      <c r="O32" s="181" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" s="182"/>
-      <c r="Q32" s="183"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="31"/>
-      <c r="B33" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="132" t="s">
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="81"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.8" thickTop="1">
+      <c r="A36" s="107"/>
+      <c r="B36" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="179" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="185"/>
-    </row>
-    <row r="34" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="202"/>
-      <c r="D34" s="165" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="166"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="168" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="165" t="s">
-        <v>62</v>
-      </c>
-      <c r="J34" s="166"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="167"/>
-      <c r="M34" s="168" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="90"/>
-      <c r="O34" s="165" t="s">
-        <v>62</v>
-      </c>
-      <c r="P34" s="166"/>
-      <c r="Q34" s="203"/>
-    </row>
-    <row r="35" spans="1:17" ht="18" thickTop="1" thickBot="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="186" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="187"/>
-      <c r="D35" s="188" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="189"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="191" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="192"/>
-      <c r="O35" s="192"/>
-      <c r="P35" s="192"/>
-      <c r="Q35" s="193"/>
-    </row>
-    <row r="36" spans="1:17" ht="17.25" thickTop="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="194" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="195"/>
-      <c r="D36" s="196" t="s">
+      <c r="E36" s="85"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="197"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="198" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="195"/>
-      <c r="I36" s="196" t="s">
+      <c r="J36" s="87"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="88"/>
+    </row>
+    <row r="37" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A37" s="107"/>
+      <c r="B37" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="199"/>
-      <c r="K36" s="197"/>
-      <c r="L36" s="197"/>
-      <c r="M36" s="197"/>
-      <c r="N36" s="197"/>
-      <c r="O36" s="197"/>
-      <c r="P36" s="197"/>
-      <c r="Q36" s="200"/>
-    </row>
-    <row r="37" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="204" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="207" t="s">
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="208"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="209"/>
-      <c r="J37" s="210" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="249" t="s">
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="107"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="44"/>
+    </row>
+    <row r="39" spans="1:17" ht="22.8">
+      <c r="A39" s="107"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="47"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A40" s="107"/>
+      <c r="B40" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="76" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="78"/>
+    </row>
+    <row r="41" spans="1:17" ht="22.8">
+      <c r="A41" s="107"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="L37" s="250"/>
-      <c r="M37" s="250"/>
-      <c r="N37" s="250"/>
-      <c r="O37" s="250"/>
-      <c r="P37" s="250"/>
-      <c r="Q37" s="251"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="31"/>
-      <c r="B38" s="205"/>
-      <c r="C38" s="213" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="211"/>
-      <c r="K38" s="219" t="s">
-        <v>81</v>
-      </c>
-      <c r="L38" s="220"/>
-      <c r="M38" s="220"/>
-      <c r="N38" s="220"/>
-      <c r="O38" s="220"/>
-      <c r="P38" s="220"/>
-      <c r="Q38" s="221"/>
-    </row>
-    <row r="39" spans="1:17" ht="24">
-      <c r="A39" s="31"/>
-      <c r="B39" s="206"/>
-      <c r="C39" s="216"/>
-      <c r="D39" s="217"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="211"/>
-      <c r="K39" s="246" t="s">
-        <v>70</v>
-      </c>
-      <c r="L39" s="247"/>
-      <c r="M39" s="247"/>
-      <c r="N39" s="247"/>
-      <c r="O39" s="247"/>
-      <c r="P39" s="247"/>
-      <c r="Q39" s="248"/>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="222" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="223"/>
-      <c r="D40" s="223"/>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="224"/>
-      <c r="J40" s="211"/>
-      <c r="K40" s="231" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="232"/>
-      <c r="M40" s="232"/>
-      <c r="N40" s="232"/>
-      <c r="O40" s="232"/>
-      <c r="P40" s="232"/>
-      <c r="Q40" s="233"/>
-    </row>
-    <row r="41" spans="1:17" ht="24">
-      <c r="A41" s="31"/>
-      <c r="B41" s="225"/>
-      <c r="C41" s="226"/>
-      <c r="D41" s="226"/>
-      <c r="E41" s="226"/>
-      <c r="F41" s="226"/>
-      <c r="G41" s="226"/>
-      <c r="H41" s="226"/>
-      <c r="I41" s="227"/>
-      <c r="J41" s="211"/>
-      <c r="K41" s="246" t="s">
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="47"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="107"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="L41" s="247"/>
-      <c r="M41" s="247"/>
-      <c r="N41" s="247"/>
-      <c r="O41" s="247"/>
-      <c r="P41" s="247"/>
-      <c r="Q41" s="248"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="31"/>
-      <c r="B42" s="225"/>
-      <c r="C42" s="226"/>
-      <c r="D42" s="226"/>
-      <c r="E42" s="226"/>
-      <c r="F42" s="226"/>
-      <c r="G42" s="226"/>
-      <c r="H42" s="226"/>
-      <c r="I42" s="227"/>
-      <c r="J42" s="212"/>
-      <c r="K42" s="236" t="s">
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="35"/>
+    </row>
+    <row r="43" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A43" s="107"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="L42" s="237"/>
-      <c r="M42" s="237"/>
-      <c r="N42" s="237"/>
-      <c r="O42" s="237"/>
-      <c r="P42" s="237"/>
-      <c r="Q42" s="238"/>
-    </row>
-    <row r="43" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="225"/>
-      <c r="C43" s="226"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="226"/>
-      <c r="F43" s="226"/>
-      <c r="G43" s="226"/>
-      <c r="H43" s="226"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="210" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="249" t="s">
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="107"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="44"/>
+    </row>
+    <row r="45" spans="1:17" ht="22.8">
+      <c r="A45" s="107"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L43" s="250"/>
-      <c r="M43" s="250"/>
-      <c r="N43" s="250"/>
-      <c r="O43" s="250"/>
-      <c r="P43" s="250"/>
-      <c r="Q43" s="251"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="31"/>
-      <c r="B44" s="225"/>
-      <c r="C44" s="226"/>
-      <c r="D44" s="226"/>
-      <c r="E44" s="226"/>
-      <c r="F44" s="226"/>
-      <c r="G44" s="226"/>
-      <c r="H44" s="226"/>
-      <c r="I44" s="227"/>
-      <c r="J44" s="211"/>
-      <c r="K44" s="219" t="s">
-        <v>85</v>
-      </c>
-      <c r="L44" s="220"/>
-      <c r="M44" s="220"/>
-      <c r="N44" s="220"/>
-      <c r="O44" s="220"/>
-      <c r="P44" s="220"/>
-      <c r="Q44" s="221"/>
-    </row>
-    <row r="45" spans="1:17" ht="24">
-      <c r="A45" s="31"/>
-      <c r="B45" s="225"/>
-      <c r="C45" s="226"/>
-      <c r="D45" s="226"/>
-      <c r="E45" s="226"/>
-      <c r="F45" s="226"/>
-      <c r="G45" s="226"/>
-      <c r="H45" s="226"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="211"/>
-      <c r="K45" s="246" t="s">
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="47"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="107"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="L45" s="247"/>
-      <c r="M45" s="247"/>
-      <c r="N45" s="247"/>
-      <c r="O45" s="247"/>
-      <c r="P45" s="247"/>
-      <c r="Q45" s="248"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="31"/>
-      <c r="B46" s="225"/>
-      <c r="C46" s="226"/>
-      <c r="D46" s="226"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="226"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="226"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="240" t="s">
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="50"/>
+    </row>
+    <row r="47" spans="1:17" ht="22.8">
+      <c r="A47" s="107"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="L46" s="241"/>
-      <c r="M46" s="241"/>
-      <c r="N46" s="241"/>
-      <c r="O46" s="241"/>
-      <c r="P46" s="241"/>
-      <c r="Q46" s="242"/>
-    </row>
-    <row r="47" spans="1:17" ht="24">
-      <c r="A47" s="31"/>
-      <c r="B47" s="225"/>
-      <c r="C47" s="226"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="226"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="226"/>
-      <c r="I47" s="227"/>
-      <c r="J47" s="211"/>
-      <c r="K47" s="246" t="s">
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="47"/>
+    </row>
+    <row r="48" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A48" s="107"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="L47" s="247"/>
-      <c r="M47" s="247"/>
-      <c r="N47" s="247"/>
-      <c r="O47" s="247"/>
-      <c r="P47" s="247"/>
-      <c r="Q47" s="248"/>
-    </row>
-    <row r="48" spans="1:17" ht="17.25" thickBot="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="228"/>
-      <c r="C48" s="229"/>
-      <c r="D48" s="229"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="229"/>
-      <c r="G48" s="229"/>
-      <c r="H48" s="229"/>
-      <c r="I48" s="230"/>
-      <c r="J48" s="239"/>
-      <c r="K48" s="243" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" s="244"/>
-      <c r="M48" s="244"/>
-      <c r="N48" s="244"/>
-      <c r="O48" s="244"/>
-      <c r="P48" s="244"/>
-      <c r="Q48" s="245"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="53"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3"/>
@@ -3652,25 +3660,25 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
     </row>
-    <row r="51" spans="1:17" ht="21">
+    <row r="51" spans="1:17" ht="22.2">
       <c r="A51" s="27"/>
-      <c r="B51" s="234" t="s">
+      <c r="B51" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="234"/>
-      <c r="D51" s="234"/>
-      <c r="E51" s="234"/>
-      <c r="F51" s="234"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="234"/>
-      <c r="I51" s="234"/>
-      <c r="J51" s="234"/>
-      <c r="K51" s="234"/>
-      <c r="L51" s="234"/>
-      <c r="M51" s="234"/>
-      <c r="N51" s="234"/>
-      <c r="O51" s="234"/>
-      <c r="P51" s="234"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
       <c r="Q51" s="27"/>
     </row>
     <row r="52" spans="1:17">
@@ -3810,22 +3818,22 @@
       <c r="B58" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="235" t="s">
+      <c r="C58" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="235"/>
-      <c r="E58" s="235"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="235"/>
-      <c r="H58" s="235"/>
-      <c r="I58" s="235"/>
-      <c r="J58" s="235"/>
-      <c r="K58" s="235"/>
-      <c r="L58" s="235"/>
-      <c r="M58" s="235"/>
-      <c r="N58" s="235"/>
-      <c r="O58" s="235"/>
-      <c r="P58" s="235"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17">
@@ -4004,37 +4012,74 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="C58:P58"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="J43:J48"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="B40:I48"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L3:L13"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="M22:N25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:L24"/>
@@ -4059,77 +4104,40 @@
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="M22:N25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="M10:O11"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L3:L13"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="M12:O13"/>
-    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="B40:I48"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="C58:P58"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
+++ b/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Web\App_Data\Payment\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AAC3E-F277-4E72-A214-6729E43458AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC5DAA-8BBF-4727-BCDC-E8871559F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>P_KIND</t>
   </si>
   <si>
-    <t>P_KIND共分P_NUM期，本期為第P_TIME期</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -316,6 +313,10 @@
   </si>
   <si>
     <t>填發日期：#VerifyDate#</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>共分#P_NUM#期，本期為第#P_TIME#期</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1464,19 +1465,547 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1485,7 +2014,7 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1496,63 +2025,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1560,6 +2032,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -1596,530 +2086,41 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2462,31 +2463,31 @@
   <sheetData>
     <row r="1" spans="1:17" ht="19.8">
       <c r="A1" s="1"/>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="192" t="s">
+      <c r="L1" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="193"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="193"/>
-      <c r="P1" s="193"/>
-      <c r="Q1" s="193"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2501,7 +2502,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>
@@ -2509,291 +2510,291 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="208" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="210"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="211" t="s">
+      <c r="L3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="208" t="s">
+      <c r="N3" s="33"/>
+      <c r="O3" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="212"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="107"/>
-      <c r="B4" s="117" t="s">
+      <c r="A4" s="31"/>
+      <c r="B4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="118"/>
-      <c r="D4" s="119" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="213"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="43"/>
       <c r="K4" s="8"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="117" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="118"/>
-      <c r="O4" s="214" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="215"/>
-      <c r="Q4" s="216"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="46"/>
     </row>
     <row r="5" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A5" s="107"/>
-      <c r="B5" s="117" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="217" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="218"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="213"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="219" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="220"/>
-      <c r="O5" s="223" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="224"/>
-      <c r="Q5" s="225"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="107"/>
-      <c r="B6" s="229" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="230"/>
-      <c r="D6" s="230"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="232" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="233"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
-      <c r="J6" s="234"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="222"/>
-      <c r="O6" s="226"/>
-      <c r="P6" s="227"/>
-      <c r="Q6" s="228"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A7" s="107"/>
-      <c r="B7" s="117" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="194" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="195"/>
-      <c r="F7" s="196" t="s">
+      <c r="E7" s="86"/>
+      <c r="F7" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="90"/>
+      <c r="O7" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="93"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A8" s="31"/>
+      <c r="B8" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="95"/>
-      <c r="O7" s="198" t="s">
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="97"/>
+      <c r="O8" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="199"/>
-      <c r="Q7" s="200"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="107"/>
-      <c r="B8" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="118"/>
-      <c r="D8" s="201" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="203" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="204"/>
-      <c r="O8" s="101" t="s">
+      <c r="P8" s="101"/>
+      <c r="Q8" s="102"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A9" s="31"/>
+      <c r="B9" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="207"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="107"/>
-      <c r="B9" s="154" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="155"/>
-      <c r="D9" s="166" t="s">
+      <c r="P9" s="117"/>
+      <c r="Q9" s="118"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A10" s="31"/>
+      <c r="B10" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="105" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="119" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="120"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="128"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A11" s="31"/>
+      <c r="B11" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="90"/>
+      <c r="D11" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="124"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="129"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A12" s="31"/>
+      <c r="B12" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="129"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A13" s="31"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="168" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="205"/>
-      <c r="N9" s="206"/>
-      <c r="O9" s="177" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="179"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A10" s="107"/>
-      <c r="B10" s="117" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="118"/>
-      <c r="D10" s="166" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="174"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="180" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="181"/>
-      <c r="O10" s="182"/>
-      <c r="P10" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="189"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="235" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="183"/>
-      <c r="N11" s="184"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="187"/>
-      <c r="Q11" s="190"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="237" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="238"/>
-      <c r="D12" s="241" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="243" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="244"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="187"/>
-      <c r="Q12" s="190"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A13" s="107"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="249" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="250"/>
-      <c r="F13" s="250"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="247"/>
-      <c r="O13" s="248"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="191"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="127"/>
+      <c r="Q13" s="130"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="16"/>
@@ -2835,29 +2836,29 @@
     </row>
     <row r="16" spans="1:17" ht="19.8">
       <c r="A16" s="1"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="137"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
-      <c r="O16" s="137"/>
-      <c r="P16" s="137"/>
-      <c r="Q16" s="137"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
     </row>
     <row r="17" spans="1:17" ht="16.8" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2878,209 +2879,209 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="110" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113" t="s">
+      <c r="E18" s="147"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="109"/>
-      <c r="I18" s="114" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="116"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="151"/>
+      <c r="N18" s="151"/>
+      <c r="O18" s="151"/>
+      <c r="P18" s="151"/>
+      <c r="Q18" s="152"/>
     </row>
     <row r="19" spans="1:17" ht="25.05" customHeight="1">
-      <c r="A19" s="107"/>
-      <c r="B19" s="117" t="s">
+      <c r="A19" s="31"/>
+      <c r="B19" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="252"/>
-      <c r="O19" s="253"/>
-      <c r="P19" s="122" t="s">
+      <c r="N19" s="155"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="123"/>
+      <c r="Q19" s="157"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="107"/>
-      <c r="B20" s="117" t="s">
+      <c r="A20" s="31"/>
+      <c r="B20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="124" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="118"/>
-      <c r="F20" s="125" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="131" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="135" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="136"/>
+      <c r="Q20" s="137"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="31"/>
+      <c r="B21" s="138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="126"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="124" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="118"/>
-      <c r="O20" s="143" t="s">
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="131" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="143" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="144"/>
-      <c r="Q20" s="145"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="107"/>
-      <c r="B21" s="146" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="148" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="124" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="118"/>
-      <c r="O21" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="153"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="145"/>
     </row>
     <row r="22" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A22" s="107"/>
-      <c r="B22" s="154" t="s">
+      <c r="A22" s="31"/>
+      <c r="B22" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="159" t="s">
+      <c r="C22" s="104"/>
+      <c r="D22" s="158" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="N22" s="160"/>
+      <c r="N22" s="162"/>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A23" s="107"/>
-      <c r="B23" s="165" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="95"/>
-      <c r="D23" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="94" t="s">
+      <c r="C23" s="90"/>
+      <c r="D23" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="168"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="93"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="162"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="164"/>
       <c r="O23" s="21"/>
       <c r="P23" s="21"/>
       <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A24" s="107"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="162"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="164"/>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A25" s="107"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="105"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="163"/>
-      <c r="N25" s="164"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="173"/>
+      <c r="C25" s="174"/>
+      <c r="D25" s="176" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
       <c r="Q25" s="24"/>
@@ -3125,29 +3126,29 @@
     </row>
     <row r="28" spans="1:17" ht="19.8">
       <c r="A28" s="1"/>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="137"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="137"/>
-      <c r="J28" s="137"/>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="137"/>
-      <c r="N28" s="137"/>
-      <c r="O28" s="137"/>
-      <c r="P28" s="137"/>
-      <c r="Q28" s="137"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
     </row>
     <row r="29" spans="1:17" ht="16.8" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3166,461 +3167,461 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="111"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="113" t="s">
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="109"/>
-      <c r="I30" s="114" t="s">
+      <c r="H30" s="33"/>
+      <c r="I30" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="116"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="151"/>
+      <c r="N30" s="151"/>
+      <c r="O30" s="151"/>
+      <c r="P30" s="151"/>
+      <c r="Q30" s="152"/>
     </row>
     <row r="31" spans="1:17" ht="25.05" customHeight="1">
-      <c r="A31" s="107"/>
-      <c r="B31" s="117" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119" t="s">
+      <c r="C31" s="40"/>
+      <c r="D31" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="122" t="s">
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="N31" s="252"/>
-      <c r="O31" s="253"/>
-      <c r="P31" s="122" t="s">
+      <c r="N31" s="155"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="154" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="123"/>
+      <c r="Q31" s="157"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="107"/>
-      <c r="B32" s="117" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="118"/>
-      <c r="D32" s="124" t="s">
+      <c r="C32" s="40"/>
+      <c r="D32" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="118"/>
-      <c r="F32" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="126"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
-      <c r="M32" s="128" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="132" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="134"/>
+      <c r="M32" s="179" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="129"/>
-      <c r="O32" s="132" t="s">
+      <c r="N32" s="180"/>
+      <c r="O32" s="183" t="s">
+        <v>64</v>
+      </c>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="185"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="31"/>
+      <c r="B33" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="40"/>
+      <c r="D33" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="134"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="107"/>
-      <c r="B33" s="117" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="118"/>
-      <c r="D33" s="125" t="s">
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="133"/>
+      <c r="J33" s="133"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="134"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="181" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="186"/>
+      <c r="Q33" s="187"/>
+    </row>
+    <row r="34" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A34" s="31"/>
+      <c r="B34" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="204"/>
+      <c r="D34" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="168"/>
+      <c r="F34" s="169"/>
+      <c r="G34" s="170" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="90"/>
+      <c r="I34" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="168"/>
+      <c r="K34" s="168"/>
+      <c r="L34" s="169"/>
+      <c r="M34" s="170" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="90"/>
+      <c r="O34" s="167" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" s="168"/>
+      <c r="Q34" s="205"/>
+    </row>
+    <row r="35" spans="1:17" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="189"/>
+      <c r="D35" s="190" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="191"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
+      <c r="L35" s="194"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="194"/>
+      <c r="O35" s="194"/>
+      <c r="P35" s="194"/>
+      <c r="Q35" s="195"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.8" thickTop="1">
+      <c r="A36" s="31"/>
+      <c r="B36" s="196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="197"/>
+      <c r="D36" s="198" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="126"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="131"/>
-      <c r="O33" s="130" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="135"/>
-      <c r="Q33" s="136"/>
-    </row>
-    <row r="34" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A34" s="107"/>
-      <c r="B34" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" s="92"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="95"/>
-      <c r="I34" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="95"/>
-      <c r="O34" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="96"/>
-    </row>
-    <row r="35" spans="1:17" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A35" s="107"/>
-      <c r="B35" s="138" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="139"/>
-      <c r="D35" s="140" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="79" t="s">
+      <c r="E36" s="199"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="200" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="197"/>
+      <c r="I36" s="198" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="201"/>
+      <c r="K36" s="199"/>
+      <c r="L36" s="199"/>
+      <c r="M36" s="199"/>
+      <c r="N36" s="199"/>
+      <c r="O36" s="199"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="202"/>
+    </row>
+    <row r="37" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A37" s="31"/>
+      <c r="B37" s="206" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="210"/>
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="211"/>
+      <c r="J37" s="212" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="215" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="216"/>
+      <c r="M37" s="216"/>
+      <c r="N37" s="216"/>
+      <c r="O37" s="216"/>
+      <c r="P37" s="216"/>
+      <c r="Q37" s="217"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="31"/>
+      <c r="B38" s="207"/>
+      <c r="C38" s="218" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="219"/>
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="213"/>
+      <c r="K38" s="224" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38" s="225"/>
+      <c r="M38" s="225"/>
+      <c r="N38" s="225"/>
+      <c r="O38" s="225"/>
+      <c r="P38" s="225"/>
+      <c r="Q38" s="226"/>
+    </row>
+    <row r="39" spans="1:17" ht="22.8">
+      <c r="A39" s="31"/>
+      <c r="B39" s="208"/>
+      <c r="C39" s="221"/>
+      <c r="D39" s="222"/>
+      <c r="E39" s="222"/>
+      <c r="F39" s="222"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="213"/>
+      <c r="K39" s="227" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="228"/>
+      <c r="M39" s="228"/>
+      <c r="N39" s="228"/>
+      <c r="O39" s="228"/>
+      <c r="P39" s="228"/>
+      <c r="Q39" s="229"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A40" s="31"/>
+      <c r="B40" s="230" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="231"/>
+      <c r="D40" s="231"/>
+      <c r="E40" s="231"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="231"/>
+      <c r="H40" s="231"/>
+      <c r="I40" s="232"/>
+      <c r="J40" s="213"/>
+      <c r="K40" s="239" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="240"/>
+      <c r="M40" s="240"/>
+      <c r="N40" s="240"/>
+      <c r="O40" s="240"/>
+      <c r="P40" s="240"/>
+      <c r="Q40" s="241"/>
+    </row>
+    <row r="41" spans="1:17" ht="22.8">
+      <c r="A41" s="31"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="234"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="234"/>
+      <c r="F41" s="234"/>
+      <c r="G41" s="234"/>
+      <c r="H41" s="234"/>
+      <c r="I41" s="235"/>
+      <c r="J41" s="213"/>
+      <c r="K41" s="227" t="s">
+        <v>70</v>
+      </c>
+      <c r="L41" s="228"/>
+      <c r="M41" s="228"/>
+      <c r="N41" s="228"/>
+      <c r="O41" s="228"/>
+      <c r="P41" s="228"/>
+      <c r="Q41" s="229"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="31"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="234"/>
+      <c r="D42" s="234"/>
+      <c r="E42" s="234"/>
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="244" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42" s="245"/>
+      <c r="M42" s="245"/>
+      <c r="N42" s="245"/>
+      <c r="O42" s="245"/>
+      <c r="P42" s="245"/>
+      <c r="Q42" s="246"/>
+    </row>
+    <row r="43" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A43" s="31"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="234"/>
+      <c r="D43" s="234"/>
+      <c r="E43" s="234"/>
+      <c r="F43" s="234"/>
+      <c r="G43" s="234"/>
+      <c r="H43" s="234"/>
+      <c r="I43" s="235"/>
+      <c r="J43" s="212" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="215" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="216"/>
+      <c r="M43" s="216"/>
+      <c r="N43" s="216"/>
+      <c r="O43" s="216"/>
+      <c r="P43" s="216"/>
+      <c r="Q43" s="217"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="31"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="234"/>
+      <c r="D44" s="234"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="234"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="213"/>
+      <c r="K44" s="224" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="81"/>
-    </row>
-    <row r="36" spans="1:17" ht="16.8" thickTop="1">
-      <c r="A36" s="107"/>
-      <c r="B36" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="J36" s="87"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="88"/>
-    </row>
-    <row r="37" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A37" s="107"/>
-      <c r="B37" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="41"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="107"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="44"/>
-    </row>
-    <row r="39" spans="1:17" ht="22.8">
-      <c r="A39" s="107"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="46"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="47"/>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A40" s="107"/>
-      <c r="B40" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="L40" s="77"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="77"/>
-      <c r="Q40" s="78"/>
-    </row>
-    <row r="41" spans="1:17" ht="22.8">
-      <c r="A41" s="107"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="47"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="107"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="35"/>
-    </row>
-    <row r="43" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A43" s="107"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="39" t="s">
+      <c r="L44" s="225"/>
+      <c r="M44" s="225"/>
+      <c r="N44" s="225"/>
+      <c r="O44" s="225"/>
+      <c r="P44" s="225"/>
+      <c r="Q44" s="226"/>
+    </row>
+    <row r="45" spans="1:17" ht="22.8">
+      <c r="A45" s="31"/>
+      <c r="B45" s="233"/>
+      <c r="C45" s="234"/>
+      <c r="D45" s="234"/>
+      <c r="E45" s="234"/>
+      <c r="F45" s="234"/>
+      <c r="G45" s="234"/>
+      <c r="H45" s="234"/>
+      <c r="I45" s="235"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="107"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="44"/>
-    </row>
-    <row r="45" spans="1:17" ht="22.8">
-      <c r="A45" s="107"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="45" t="s">
+      <c r="L45" s="228"/>
+      <c r="M45" s="228"/>
+      <c r="N45" s="228"/>
+      <c r="O45" s="228"/>
+      <c r="P45" s="228"/>
+      <c r="Q45" s="229"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="31"/>
+      <c r="B46" s="233"/>
+      <c r="C46" s="234"/>
+      <c r="D46" s="234"/>
+      <c r="E46" s="234"/>
+      <c r="F46" s="234"/>
+      <c r="G46" s="234"/>
+      <c r="H46" s="234"/>
+      <c r="I46" s="235"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="248" t="s">
         <v>74</v>
       </c>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="46"/>
-      <c r="Q45" s="47"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="107"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="48" t="s">
+      <c r="L46" s="249"/>
+      <c r="M46" s="249"/>
+      <c r="N46" s="249"/>
+      <c r="O46" s="249"/>
+      <c r="P46" s="249"/>
+      <c r="Q46" s="250"/>
+    </row>
+    <row r="47" spans="1:17" ht="22.8">
+      <c r="A47" s="31"/>
+      <c r="B47" s="233"/>
+      <c r="C47" s="234"/>
+      <c r="D47" s="234"/>
+      <c r="E47" s="234"/>
+      <c r="F47" s="234"/>
+      <c r="G47" s="234"/>
+      <c r="H47" s="234"/>
+      <c r="I47" s="235"/>
+      <c r="J47" s="213"/>
+      <c r="K47" s="227" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="50"/>
-    </row>
-    <row r="47" spans="1:17" ht="22.8">
-      <c r="A47" s="107"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="45" t="s">
+      <c r="L47" s="228"/>
+      <c r="M47" s="228"/>
+      <c r="N47" s="228"/>
+      <c r="O47" s="228"/>
+      <c r="P47" s="228"/>
+      <c r="Q47" s="229"/>
+    </row>
+    <row r="48" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A48" s="31"/>
+      <c r="B48" s="236"/>
+      <c r="C48" s="237"/>
+      <c r="D48" s="237"/>
+      <c r="E48" s="237"/>
+      <c r="F48" s="237"/>
+      <c r="G48" s="237"/>
+      <c r="H48" s="237"/>
+      <c r="I48" s="238"/>
+      <c r="J48" s="247"/>
+      <c r="K48" s="251" t="s">
         <v>76</v>
       </c>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="47"/>
-    </row>
-    <row r="48" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A48" s="107"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
-      <c r="H48" s="74"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="53"/>
+      <c r="L48" s="252"/>
+      <c r="M48" s="252"/>
+      <c r="N48" s="252"/>
+      <c r="O48" s="252"/>
+      <c r="P48" s="252"/>
+      <c r="Q48" s="253"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3"/>
@@ -3662,23 +3663,23 @@
     </row>
     <row r="51" spans="1:17" ht="22.2">
       <c r="A51" s="27"/>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="242" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="242"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="242"/>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="242"/>
+      <c r="L51" s="242"/>
+      <c r="M51" s="242"/>
+      <c r="N51" s="242"/>
+      <c r="O51" s="242"/>
+      <c r="P51" s="242"/>
       <c r="Q51" s="27"/>
     </row>
     <row r="52" spans="1:17">
@@ -3818,22 +3819,22 @@
       <c r="B58" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="243" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
+      <c r="D58" s="243"/>
+      <c r="E58" s="243"/>
+      <c r="F58" s="243"/>
+      <c r="G58" s="243"/>
+      <c r="H58" s="243"/>
+      <c r="I58" s="243"/>
+      <c r="J58" s="243"/>
+      <c r="K58" s="243"/>
+      <c r="L58" s="243"/>
+      <c r="M58" s="243"/>
+      <c r="N58" s="243"/>
+      <c r="O58" s="243"/>
+      <c r="P58" s="243"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17">
@@ -4012,50 +4013,61 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L3:L13"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="M12:O13"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="M10:O11"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="C58:P58"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="B40:I48"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="D25:L25"/>
+    <mergeCell ref="A30:A48"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:Q30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:L32"/>
+    <mergeCell ref="M32:N33"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="B28:Q28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:L20"/>
     <mergeCell ref="M20:N20"/>
@@ -4080,61 +4092,50 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="D25:L25"/>
-    <mergeCell ref="A30:A48"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:Q30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:L32"/>
-    <mergeCell ref="M32:N33"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="B28:Q28"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="B40:I48"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="C58:P58"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="J43:J48"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L3:L13"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
+++ b/NT_AirPollution.Web/App_Data/Payment/Template/Payment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\case\Alvin\NT_AirPollution\NT_AirPollution.Web\App_Data\Payment\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC5DAA-8BBF-4727-BCDC-E8871559F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3DE50B-BD87-4763-95DB-A80C1EA1E0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C6B42BF7-E678-4F2D-9098-44B5A48F9E16}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>南投縣政府營建工程空氣污染防制費繳款單</t>
   </si>
   <si>
-    <t>銷帳編號：PAY_NO</t>
-  </si>
-  <si>
     <t>C_NO</t>
   </si>
   <si>
@@ -317,6 +314,10 @@
   </si>
   <si>
     <t>共分#P_NUM#期，本期為第#P_TIME#期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>銷帳編號：#PAY_NO#</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1465,529 +1466,73 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2008,23 +1553,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2032,24 +1562,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -2086,41 +1598,530 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2463,37 +2464,37 @@
   <sheetData>
     <row r="1" spans="1:17" ht="19.8">
       <c r="A1" s="1"/>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
     </row>
     <row r="2" spans="1:17" ht="16.8" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -2502,7 +2503,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="3"/>
@@ -2510,291 +2511,291 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="213" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="210" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="211"/>
+      <c r="Q3" s="214"/>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A4" s="107"/>
+      <c r="B4" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="118"/>
+      <c r="D4" s="119" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="215"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="118"/>
+      <c r="O4" s="216" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="218"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A5" s="107"/>
+      <c r="B5" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="219" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="220"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="215"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="222"/>
+      <c r="O5" s="225" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="38"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="44" t="s">
+      <c r="P5" s="226"/>
+      <c r="Q5" s="227"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="107"/>
+      <c r="B6" s="231" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="232"/>
+      <c r="D6" s="232"/>
+      <c r="E6" s="233"/>
+      <c r="F6" s="234" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="46"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="47" t="s">
+      <c r="G6" s="235"/>
+      <c r="H6" s="235"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="213"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="224"/>
+      <c r="O6" s="228"/>
+      <c r="P6" s="229"/>
+      <c r="Q6" s="230"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A7" s="107"/>
+      <c r="B7" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="196" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="197"/>
+      <c r="F7" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="198"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="167" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="95"/>
+      <c r="O7" s="200" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="202"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A8" s="107"/>
+      <c r="B8" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="118"/>
+      <c r="D8" s="203" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="213"/>
+      <c r="M8" s="205" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="206"/>
+      <c r="O8" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="209"/>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A9" s="107"/>
+      <c r="B9" s="156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="157"/>
+      <c r="D9" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="208"/>
+      <c r="O9" s="179" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="181"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A10" s="107"/>
+      <c r="B10" s="117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="118"/>
+      <c r="D10" s="168" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="182" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="183"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="188" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="191"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A11" s="107"/>
+      <c r="B11" s="167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="95"/>
+      <c r="D11" s="237" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="238"/>
+      <c r="F11" s="238"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="186"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="192"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A12" s="107"/>
+      <c r="B12" s="239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="240"/>
+      <c r="D12" s="243" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="245" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="31"/>
-      <c r="B6" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="58"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="93"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="97"/>
-      <c r="O8" s="100" t="s">
+      <c r="N12" s="246"/>
+      <c r="O12" s="247"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="192"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A13" s="107"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="251" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="101"/>
-      <c r="Q8" s="102"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="118"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="119" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="120"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="128"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="129"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="74"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="129"/>
-    </row>
-    <row r="13" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="79" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="178"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="127"/>
-      <c r="Q13" s="130"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="248"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="250"/>
+      <c r="P13" s="190"/>
+      <c r="Q13" s="193"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="16"/>
@@ -2836,29 +2837,29 @@
     </row>
     <row r="16" spans="1:17" ht="19.8">
       <c r="A16" s="1"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
     </row>
     <row r="17" spans="1:17" ht="16.8" thickBot="1">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2871,7 +2872,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="3"/>
@@ -2879,125 +2880,125 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="146" t="s">
+      <c r="C18" s="109"/>
+      <c r="D18" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="109"/>
+      <c r="I18" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="150" t="s">
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="116"/>
+    </row>
+    <row r="19" spans="1:17" ht="25.05" customHeight="1">
+      <c r="A19" s="107"/>
+      <c r="B19" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
-      <c r="Q18" s="152"/>
-    </row>
-    <row r="19" spans="1:17" ht="25.05" customHeight="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41" t="s">
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="123"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="155"/>
-      <c r="O19" s="156"/>
-      <c r="P19" s="154" t="s">
+      <c r="Q19" s="125"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="107"/>
+      <c r="B20" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="118"/>
+      <c r="D20" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="157"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="31"/>
-      <c r="B20" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="131" t="s">
+      <c r="E20" s="118"/>
+      <c r="F20" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="126" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="118"/>
+      <c r="O20" s="145" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="147"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="107"/>
+      <c r="B21" s="148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="149"/>
+      <c r="D21" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="126" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="118"/>
+      <c r="O21" s="153" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="155"/>
+    </row>
+    <row r="22" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A22" s="107"/>
+      <c r="B22" s="156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="157"/>
+      <c r="D22" s="158" t="s">
         <v>59</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="131" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="135" t="s">
-        <v>62</v>
-      </c>
-      <c r="P20" s="136"/>
-      <c r="Q20" s="137"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="31"/>
-      <c r="B21" s="138" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="131" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="40"/>
-      <c r="O21" s="143" t="s">
-        <v>63</v>
-      </c>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="145"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="158" t="s">
-        <v>60</v>
       </c>
       <c r="E22" s="159"/>
       <c r="F22" s="159"/>
@@ -3016,26 +3017,26 @@
       <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="89" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="90"/>
-      <c r="D23" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="168"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="170" t="s">
+      <c r="C23" s="95"/>
+      <c r="D23" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="92"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="90"/>
-      <c r="I23" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="169"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="163"/>
       <c r="N23" s="164"/>
       <c r="O23" s="21"/>
@@ -3043,22 +3044,22 @@
       <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="171" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="101"/>
-      <c r="L24" s="175"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="103"/>
       <c r="M24" s="163"/>
       <c r="N24" s="164"/>
       <c r="O24" s="21"/>
@@ -3066,20 +3067,20 @@
       <c r="Q24" s="22"/>
     </row>
     <row r="25" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A25" s="31"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="174"/>
-      <c r="D25" s="176" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="178"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="105"/>
+      <c r="L25" s="106"/>
       <c r="M25" s="165"/>
       <c r="N25" s="166"/>
       <c r="O25" s="23"/>
@@ -3126,29 +3127,29 @@
     </row>
     <row r="28" spans="1:17" ht="19.8">
       <c r="A28" s="1"/>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="139"/>
     </row>
     <row r="29" spans="1:17" ht="16.8" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3167,461 +3168,461 @@
       <c r="Q29" s="6"/>
     </row>
     <row r="30" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="146" t="s">
+      <c r="C30" s="109"/>
+      <c r="D30" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="111"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="109"/>
+      <c r="I30" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="147"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149" t="s">
-        <v>0</v>
-      </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="150" t="s">
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="116"/>
+    </row>
+    <row r="31" spans="1:17" ht="25.05" customHeight="1">
+      <c r="A31" s="107"/>
+      <c r="B31" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="118"/>
+      <c r="D31" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
-      <c r="N30" s="151"/>
-      <c r="O30" s="151"/>
-      <c r="P30" s="151"/>
-      <c r="Q30" s="152"/>
-    </row>
-    <row r="31" spans="1:17" ht="25.05" customHeight="1">
-      <c r="A31" s="31"/>
-      <c r="B31" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41" t="s">
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="120"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="120"/>
+      <c r="K31" s="120"/>
+      <c r="L31" s="121"/>
+      <c r="M31" s="122" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="123"/>
+      <c r="O31" s="124"/>
+      <c r="P31" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="154" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="155"/>
-      <c r="O31" s="156"/>
-      <c r="P31" s="154" t="s">
+      <c r="Q31" s="125"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="107"/>
+      <c r="B32" s="117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="118"/>
+      <c r="D32" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="157"/>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="31"/>
-      <c r="B32" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="131" t="s">
+      <c r="E32" s="118"/>
+      <c r="F32" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="130" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="131"/>
+      <c r="O32" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" s="135"/>
+      <c r="Q32" s="136"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="107"/>
+      <c r="B33" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="118"/>
+      <c r="D33" s="127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="133"/>
+      <c r="O33" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="138"/>
+    </row>
+    <row r="34" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A34" s="107"/>
+      <c r="B34" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="133"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="133"/>
-      <c r="J32" s="133"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="134"/>
-      <c r="M32" s="179" t="s">
-        <v>8</v>
-      </c>
-      <c r="N32" s="180"/>
-      <c r="O32" s="183" t="s">
-        <v>64</v>
-      </c>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="185"/>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="31"/>
-      <c r="B33" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="40"/>
-      <c r="D33" s="132" t="s">
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="95"/>
+      <c r="I34" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="95"/>
+      <c r="O34" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="96"/>
+    </row>
+    <row r="35" spans="1:17" ht="17.399999999999999" thickTop="1" thickBot="1">
+      <c r="A35" s="107"/>
+      <c r="B35" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="141"/>
+      <c r="D35" s="142" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="143"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="81"/>
+    </row>
+    <row r="36" spans="1:17" ht="16.8" thickTop="1">
+      <c r="A36" s="107"/>
+      <c r="B36" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="134"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="181" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" s="186"/>
-      <c r="Q33" s="187"/>
-    </row>
-    <row r="34" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A34" s="31"/>
-      <c r="B34" s="203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="168"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="170" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" s="168"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="170" t="s">
-        <v>3</v>
-      </c>
-      <c r="N34" s="90"/>
-      <c r="O34" s="167" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" s="168"/>
-      <c r="Q34" s="205"/>
-    </row>
-    <row r="35" spans="1:17" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="188" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="190" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="191"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="193" t="s">
+      <c r="E36" s="85"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="86" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="J36" s="87"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="88"/>
+    </row>
+    <row r="37" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A37" s="107"/>
+      <c r="B37" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="41"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="107"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="44"/>
+    </row>
+    <row r="39" spans="1:17" ht="22.8">
+      <c r="A39" s="107"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="47"/>
+    </row>
+    <row r="40" spans="1:17" ht="16.5" customHeight="1">
+      <c r="A40" s="107"/>
+      <c r="B40" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="76" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="78"/>
+    </row>
+    <row r="41" spans="1:17" ht="22.8">
+      <c r="A41" s="107"/>
+      <c r="B41" s="70"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="47"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="107"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="35"/>
+    </row>
+    <row r="43" spans="1:17" ht="26.25" customHeight="1">
+      <c r="A43" s="107"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="107"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="71"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
-      <c r="M35" s="194"/>
-      <c r="N35" s="194"/>
-      <c r="O35" s="194"/>
-      <c r="P35" s="194"/>
-      <c r="Q35" s="195"/>
-    </row>
-    <row r="36" spans="1:17" ht="16.8" thickTop="1">
-      <c r="A36" s="31"/>
-      <c r="B36" s="196" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="197"/>
-      <c r="D36" s="198" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="199"/>
-      <c r="F36" s="197"/>
-      <c r="G36" s="200" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" s="197"/>
-      <c r="I36" s="198" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="201"/>
-      <c r="K36" s="199"/>
-      <c r="L36" s="199"/>
-      <c r="M36" s="199"/>
-      <c r="N36" s="199"/>
-      <c r="O36" s="199"/>
-      <c r="P36" s="199"/>
-      <c r="Q36" s="202"/>
-    </row>
-    <row r="37" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A37" s="31"/>
-      <c r="B37" s="206" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="209" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="210"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="212" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="215" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" s="216"/>
-      <c r="M37" s="216"/>
-      <c r="N37" s="216"/>
-      <c r="O37" s="216"/>
-      <c r="P37" s="216"/>
-      <c r="Q37" s="217"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="31"/>
-      <c r="B38" s="207"/>
-      <c r="C38" s="218" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="219"/>
-      <c r="E38" s="219"/>
-      <c r="F38" s="219"/>
-      <c r="G38" s="219"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="224" t="s">
-        <v>78</v>
-      </c>
-      <c r="L38" s="225"/>
-      <c r="M38" s="225"/>
-      <c r="N38" s="225"/>
-      <c r="O38" s="225"/>
-      <c r="P38" s="225"/>
-      <c r="Q38" s="226"/>
-    </row>
-    <row r="39" spans="1:17" ht="22.8">
-      <c r="A39" s="31"/>
-      <c r="B39" s="208"/>
-      <c r="C39" s="221"/>
-      <c r="D39" s="222"/>
-      <c r="E39" s="222"/>
-      <c r="F39" s="222"/>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="213"/>
-      <c r="K39" s="227" t="s">
-        <v>68</v>
-      </c>
-      <c r="L39" s="228"/>
-      <c r="M39" s="228"/>
-      <c r="N39" s="228"/>
-      <c r="O39" s="228"/>
-      <c r="P39" s="228"/>
-      <c r="Q39" s="229"/>
-    </row>
-    <row r="40" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" s="230" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="231"/>
-      <c r="D40" s="231"/>
-      <c r="E40" s="231"/>
-      <c r="F40" s="231"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="231"/>
-      <c r="I40" s="232"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="239" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" s="240"/>
-      <c r="M40" s="240"/>
-      <c r="N40" s="240"/>
-      <c r="O40" s="240"/>
-      <c r="P40" s="240"/>
-      <c r="Q40" s="241"/>
-    </row>
-    <row r="41" spans="1:17" ht="22.8">
-      <c r="A41" s="31"/>
-      <c r="B41" s="233"/>
-      <c r="C41" s="234"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="234"/>
-      <c r="F41" s="234"/>
-      <c r="G41" s="234"/>
-      <c r="H41" s="234"/>
-      <c r="I41" s="235"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="227" t="s">
-        <v>70</v>
-      </c>
-      <c r="L41" s="228"/>
-      <c r="M41" s="228"/>
-      <c r="N41" s="228"/>
-      <c r="O41" s="228"/>
-      <c r="P41" s="228"/>
-      <c r="Q41" s="229"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="31"/>
-      <c r="B42" s="233"/>
-      <c r="C42" s="234"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="234"/>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="214"/>
-      <c r="K42" s="244" t="s">
-        <v>71</v>
-      </c>
-      <c r="L42" s="245"/>
-      <c r="M42" s="245"/>
-      <c r="N42" s="245"/>
-      <c r="O42" s="245"/>
-      <c r="P42" s="245"/>
-      <c r="Q42" s="246"/>
-    </row>
-    <row r="43" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A43" s="31"/>
-      <c r="B43" s="233"/>
-      <c r="C43" s="234"/>
-      <c r="D43" s="234"/>
-      <c r="E43" s="234"/>
-      <c r="F43" s="234"/>
-      <c r="G43" s="234"/>
-      <c r="H43" s="234"/>
-      <c r="I43" s="235"/>
-      <c r="J43" s="212" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="215" t="s">
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="44"/>
+    </row>
+    <row r="45" spans="1:17" ht="22.8">
+      <c r="A45" s="107"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L43" s="216"/>
-      <c r="M43" s="216"/>
-      <c r="N43" s="216"/>
-      <c r="O43" s="216"/>
-      <c r="P43" s="216"/>
-      <c r="Q43" s="217"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="31"/>
-      <c r="B44" s="233"/>
-      <c r="C44" s="234"/>
-      <c r="D44" s="234"/>
-      <c r="E44" s="234"/>
-      <c r="F44" s="234"/>
-      <c r="G44" s="234"/>
-      <c r="H44" s="234"/>
-      <c r="I44" s="235"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="224" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44" s="225"/>
-      <c r="M44" s="225"/>
-      <c r="N44" s="225"/>
-      <c r="O44" s="225"/>
-      <c r="P44" s="225"/>
-      <c r="Q44" s="226"/>
-    </row>
-    <row r="45" spans="1:17" ht="22.8">
-      <c r="A45" s="31"/>
-      <c r="B45" s="233"/>
-      <c r="C45" s="234"/>
-      <c r="D45" s="234"/>
-      <c r="E45" s="234"/>
-      <c r="F45" s="234"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="234"/>
-      <c r="I45" s="235"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="227" t="s">
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="47"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="107"/>
+      <c r="B46" s="70"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="L45" s="228"/>
-      <c r="M45" s="228"/>
-      <c r="N45" s="228"/>
-      <c r="O45" s="228"/>
-      <c r="P45" s="228"/>
-      <c r="Q45" s="229"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="31"/>
-      <c r="B46" s="233"/>
-      <c r="C46" s="234"/>
-      <c r="D46" s="234"/>
-      <c r="E46" s="234"/>
-      <c r="F46" s="234"/>
-      <c r="G46" s="234"/>
-      <c r="H46" s="234"/>
-      <c r="I46" s="235"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="248" t="s">
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="50"/>
+    </row>
+    <row r="47" spans="1:17" ht="22.8">
+      <c r="A47" s="107"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="71"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="249"/>
-      <c r="M46" s="249"/>
-      <c r="N46" s="249"/>
-      <c r="O46" s="249"/>
-      <c r="P46" s="249"/>
-      <c r="Q46" s="250"/>
-    </row>
-    <row r="47" spans="1:17" ht="22.8">
-      <c r="A47" s="31"/>
-      <c r="B47" s="233"/>
-      <c r="C47" s="234"/>
-      <c r="D47" s="234"/>
-      <c r="E47" s="234"/>
-      <c r="F47" s="234"/>
-      <c r="G47" s="234"/>
-      <c r="H47" s="234"/>
-      <c r="I47" s="235"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="227" t="s">
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="47"/>
+    </row>
+    <row r="48" spans="1:17" ht="16.8" thickBot="1">
+      <c r="A48" s="107"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="L47" s="228"/>
-      <c r="M47" s="228"/>
-      <c r="N47" s="228"/>
-      <c r="O47" s="228"/>
-      <c r="P47" s="228"/>
-      <c r="Q47" s="229"/>
-    </row>
-    <row r="48" spans="1:17" ht="16.8" thickBot="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="236"/>
-      <c r="C48" s="237"/>
-      <c r="D48" s="237"/>
-      <c r="E48" s="237"/>
-      <c r="F48" s="237"/>
-      <c r="G48" s="237"/>
-      <c r="H48" s="237"/>
-      <c r="I48" s="238"/>
-      <c r="J48" s="247"/>
-      <c r="K48" s="251" t="s">
-        <v>76</v>
-      </c>
-      <c r="L48" s="252"/>
-      <c r="M48" s="252"/>
-      <c r="N48" s="252"/>
-      <c r="O48" s="252"/>
-      <c r="P48" s="252"/>
-      <c r="Q48" s="253"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="53"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="3"/>
@@ -3663,23 +3664,23 @@
     </row>
     <row r="51" spans="1:17" ht="22.2">
       <c r="A51" s="27"/>
-      <c r="B51" s="242" t="s">
+      <c r="B51" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="242"/>
-      <c r="D51" s="242"/>
-      <c r="E51" s="242"/>
-      <c r="F51" s="242"/>
-      <c r="G51" s="242"/>
-      <c r="H51" s="242"/>
-      <c r="I51" s="242"/>
-      <c r="J51" s="242"/>
-      <c r="K51" s="242"/>
-      <c r="L51" s="242"/>
-      <c r="M51" s="242"/>
-      <c r="N51" s="242"/>
-      <c r="O51" s="242"/>
-      <c r="P51" s="242"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
       <c r="Q51" s="27"/>
     </row>
     <row r="52" spans="1:17">
@@ -3819,22 +3820,22 @@
       <c r="B58" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="243" t="s">
+      <c r="C58" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="243"/>
-      <c r="E58" s="243"/>
-      <c r="F58" s="243"/>
-      <c r="G58" s="243"/>
-      <c r="H58" s="243"/>
-      <c r="I58" s="243"/>
-      <c r="J58" s="243"/>
-      <c r="K58" s="243"/>
-      <c r="L58" s="243"/>
-      <c r="M58" s="243"/>
-      <c r="N58" s="243"/>
-      <c r="O58" s="243"/>
-      <c r="P58" s="243"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17">
@@ -4013,37 +4014,74 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="C58:P58"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="J43:J48"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="K44:Q44"/>
-    <mergeCell ref="K45:Q45"/>
-    <mergeCell ref="K46:Q46"/>
-    <mergeCell ref="K47:Q47"/>
-    <mergeCell ref="K48:Q48"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:Q37"/>
-    <mergeCell ref="C38:I39"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="K39:Q39"/>
-    <mergeCell ref="B40:I48"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:Q36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L3:L13"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="O5:Q6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="M12:O13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:J13"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="M10:O11"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="Q10:Q13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="M22:N25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:L23"/>
     <mergeCell ref="B24:C25"/>
     <mergeCell ref="D24:L24"/>
@@ -4068,74 +4106,37 @@
     <mergeCell ref="B28:Q28"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="M22:N25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:J13"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="M10:O11"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="Q10:Q13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L3:L13"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="O5:Q6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="M12:O13"/>
-    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:Q36"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:Q34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="C38:I39"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="B40:I48"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="C58:P58"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="K45:Q45"/>
+    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
